--- a/analytical_results_mimic.xlsx
+++ b/analytical_results_mimic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>model</t>
   </si>
@@ -37,7 +37,22 @@
     <t>output_tokens</t>
   </si>
   <si>
+    <t>cost_input_usd</t>
+  </si>
+  <si>
+    <t>cost_output_usd</t>
+  </si>
+  <si>
+    <t>cost_total_usd</t>
+  </si>
+  <si>
     <t>gpt-5-chat</t>
+  </si>
+  <si>
+    <t>gpt-5.2-chat</t>
+  </si>
+  <si>
+    <t>gpt-5-nano</t>
   </si>
   <si>
     <t>o4-mini</t>
@@ -180,426 +195,920 @@
 </t>
   </si>
   <si>
-    <t>Let’s address each of your tasks systematically.  
----
-## **1️⃣ Dataset Structure and Variable Types**
-This dataset is modeled after **MIMIC-III**, a de-identified ICU database. It combines physiologic, demographic, and administrative information.  
-### **a) Target**
-- **HOSPITAL_EXPIRE_FLAG** (binary):  
-  1 = patient died during hospitalization, 0 = survived.  
-  → *Classification target for in-hospital mortality prediction.*
-### **b) Identifiers**
-- **subject_id, hadm_id, icustay_id:**  
-  Unique IDs for patient, hospital admission, and ICU stay respectively.  
-  👉 **Should not be used as predictors** (prevent leakage and artificial signal).
-### **c) Vital Signs / Physiologic Features**
-Features summarizing each stay (min, max, mean):  
-- HeartRate_Min/Max/Mean  
-- SysBP_*, DiasBP_*, MeanBP_*  
-- RespRate_*  
-- TempC_*  
-- SpO2_*  
-- Glucose_*  
-🩺 These represent **aggregated vital signs** and labs from ICU monitoring.  
-Numeric, continuous, mostly physiological scales.
-### **d) Demographics**
-- **Gender**
-- **DOB**, **ADMITTIME** → can derive **age at admission (diff)**.
-- **Diff** column seems to be derived (perhaps time offset or age proxy; negative because of anonymization date shifting).
-### **e) Administrative / Social Data**
-- **ADMISSION_TYPE**, **INSURANCE**, **RELIGION**, **MARITAL_STATUS**, **ETHNICITY**, **FIRST_CAREUNIT**  
-Categorical variables capturing context and patient characteristics.
-### **f) Clinical Information**
-- **DIAGNOSIS**, **ICD9_diagnosis**: Principal diagnosis codes or text.
-- **LOS**: ICU length of stay (continuous).
----
-## **2️⃣ Missing Value Pattern Analysis**
-Summary of missing counts shows:
-| Variable group         | Missing % (approx.) | Comments |
-|-------------------------|---------------------|-----------|
-| **Vitals (HR, BP, RR, T, SpO2)** | ~10% | Some patients may not have complete monitoring intervals, or data not recorded in first 24h. |
-| **Temperature variables** | ~12% | Some units (e.g. post-op, trauma) may not measure temp frequently or via device integration. |
-| **Glucose** | ~1% | Usually available in labs, low missingness. |
-| **Demographics (Marital status)** | ~3% | Standard missingness due to unavailable declaration. |
-| **Others (IDs, categorical)** | 0% | Expected, administrative data are usually complete. |
-### **Interpretation in ICU context**
-- Missingness likely **not completely at random**:  
-  - *Physiologic data* more available for monitored and critical patients; less sick or early discharged might lack full coverage.  
-  - *Temperature or SpO₂* may be missing due to device issues or clinical irrelevance.
-  - *Marital status* missing for unconscious/unidentified patients.
-- Therefore, missingness can carry **informative value** (e.g., missing vitals may indicate certain patient types).
----
-## **3️⃣ Strategies to Handle Missing Data**
-Handling must balance **clinical meaning, data quantity, and model stability.**
-### **a) Identify critical features**
-Drop columns **only if missing &gt; 40%-50%**, not the case here (max ~12%). So keep all.
-### **b) Handle physiological features (numerical)**
-1. **Imputation within vitals using statistical or clinical patterns:**
-   - *Option 1:* Median imputation per feature (robust to outliers).
-   - *Option 2:* Median/mean imputation **within ICU unit (FIRST_CAREUNIT)** or **diagnostic group**, to preserve clinical context (e.g., CSRU vs MICU different vitals).
-   - *Option 3:* KNN imputation using other vitals (HeartRate, BP, etc.) for correlated features.
-2. **Add missing-indicator flags:**
-   - For each vital sign group, create binary feature “is missing”.
-   - Helpful since missingness itself may carry prognostic signal.
-### **c) Handle demographic and administrative categorical variables**
-- **Marital status:** create a category `'UNKNOWN'` for missing values.  
-- **Religion, Ethnicity, Insurance, Admission type:** no missing ⇒ keep.
-### **d) Derived features**
-- Compute **Age at admission:** from ADMITTIME – DOB (since Diff appears de-identified).
-  - Then drop DOB/ADMITTIME to avoid leakage from temporal shifts.
-### **e) For drop or exclusion**
-- **Do not impute identifiers.**
-- **Drop "Diff"** if it's an artificial anonymization artifact (values negative).
-### **f) Sanity step**
-- After imputation, re-check for unrealistic values (e.g., BP ≤ 0, HR ≤ 0) → likely data errors; cap or winsorize.
----
-## **4️⃣ Risks and Caveats (Medical Context)**
-### ⚠️ **1. Data Leakage**
-- *Potential leakage via “Diff”, DOB, ADMITTIME, or LOS*:  
-  - LOS might end after the death — **leakage risk** if model sees total LOS when predicting early mortality.  
-  - Time-to-event features must reflect *information available at prediction time* only.
-- Be cautious including fields derived post-outcome (e.g., final average glucose).
-### ⚠️ **2. Informative Missingness Bias**
-- Missing vitals may **correlate with severity** (more monitoring = more sick).  
-  - Simple mean imputation could distort signal; consider missingness indicators or model architectures (e.g., tree ensembles handling NaNs).
-### ⚠️ **3. Sampling Bias / Representativeness**
-- ICU cohorts not uniform across ICUs: surgical vs medical vs coronary units differ systematically.  
-  - Stratify or balance across **FIRST_CAREUNIT** when training/testing.
-### ⚠️ **4. Population Imbalance**
-- 11.2% mortality only: class imbalance → risk of inflated accuracy by dominant class.  
-  - Use class-weighting, balanced metrics (AUROC, AUPRC).
-### ⚠️ **5. Ethical/Interpretation Risk**
-- Demographics (religion, marital, ethnicity) can serve as *proxies for socioeconomic features*; interpret cautiously to avoid biased care recommendations.
----
-✅ **Summary Table**
-| Step | Action | Rationale |
-|------|---------|-----------|
-| Drop identifiers (`subject_id`, `hadm_id`, etc.) | Non-informative keys | Prevent leakage |
-| Impute vitals (median per care unit) + missing flag | Preserve data, add missing info as signal | Addresses 10–12% missing |
-| Encode categorical &amp; handle unknowns (`'UNKNOWN'`) | Complete feature representation | For model input |
-| Derive age, drop DOB | Replace de-identified variable | Medical relevance |
-| Address LOS &amp; time overlap | Avoid post-discharge info | Prevent leakage |
-| Rebalance target if modeling mortality | 11% positive class only | Handle imbalance |
----
-**In short:**  
-The dataset holds a comprehensive summary of ICU patient physiology, demographics, and administrative attributes. Missingness likely reflects care intensity rather than randomness and must be treated thoughtfully. Proper preprocessing—particularly careful imputation, missing indicators, and leakage prevention—is essential to build a valid and interpretable mortality prediction model.</t>
-  </si>
-  <si>
-    <t>Let’s address each of the five tasks systematically.  
----
-## **1) Baseline Modeling Approach**
-A **reasonable baseline** for predicting *in-hospital mortality* (binary target) is a **logistic regression** model.
-**Why logistic regression?**
-- It’s **interpretable**, which matters in clinical settings where explainability is essential.  
-- Provides **probabilistic outputs**, suitable for risk stratification.  
-- Serves as a **baseline** before trying more complex methods (e.g. random forests, XGBoost, or neural networks).  
-- Handles continuous and categorical data effectively after proper preprocessing.  
-After establishing a logistic regression baseline, we could explore **tree-based ensemble models** (e.g. XGBoost, LightGBM). These often capture non-linear relationships and complex interactions that logistic regression cannot, while still providing feature importance insights.
----
-## **2) Data Preprocessing**
-### **a) Handle Missing Values**
-Based on the missing count table:
-- Most vital signs have ~2,000 missing entries out of ~20,000 rows (~10% missing).
-- `TempC_*` and `Glucose_*` have somewhat larger gaps (12% and 1%, respectively).
-- `MARITAL_STATUS` has ~3.5% missing.
-**Strategy:**
-- **Numeric variables:**  
-  - Impute using **median** values (robust to outliers).  
-  - For more sophisticated imputation: consider **multivariate imputation (MICE)** or **KNN imputation**, particularly if modeling non-linear relationships.
-  - Optionally add a binary **missingness indicator** feature for each imputed variable, since missingness itself can contain clinical signal.
-- **Categorical variables:**
-  - Fill missing `MARITAL_STATUS` with `"Unknown"` or a dedicated "Missing" category.
----
-### **b) Scaling**
-- Use **StandardScaler** (z-score normalization) for numeric variables before logistic regression.  
-  - Important for models sensitive to feature scale (logistic regression, SVM, etc.).
-- Tree-based models typically **do not require scaling**.
----
-### **c) Encoding Categorical Variables**
-Categorical columns = `GENDER`, `ADMISSION_TYPE`, `INSURANCE`, `RELIGION`, `MARITAL_STATUS`, `ETHNICITY`, `DIAGNOSIS`, `ICD9_diagnosis`, `FIRST_CAREUNIT`
-- For logistic regression: use **one-hot encoding** (dummy variables).  
-- For tree-based methods: use **label encoding** or **target encoding** if high-cardinality (e.g., `ICD9_diagnosis`).  
-  - Alternatively, group rare categories under “Other”.
----
-### **d) Handle Highly Correlated Features**
-The dataset includes many *derived features* (e.g. HeartRate_Min/Max/Mean; SysBP_Min/Max/Mean, etc.) which are likely **highly correlated**.
-To reduce multicollinearity:
-- Compute the **correlation matrix** (e.g. Pearson for continuous variables).
-- Drop one variable from each highly correlated cluster (correlation &gt; 0.9).  
-  Example: keep only `HeartRate_Mean` instead of all three.
-- Alternatively, use **regularization** (L1/Lasso) in logistic regression to automatically penalize redundant features.
----
-## **3) Handling Class Imbalance**
-The target shows:
-- Class 0 (survivors): **88.8%**
-- Class 1 (deceased): **11.2%**
-This imbalance can bias the model toward predicting survival.
-**Mitigation approaches:**
-1. **Class weighting:**  
-   - Assign weights inversely proportional to class frequencies in logistic regression or tree models (e.g., `class_weight='balanced'` in scikit-learn).  
-   - Keeps all data but adjusts emphasis on minority class.
-2. **Resampling:**  
-   - **Oversample** minority class (e.g., SMOTE, ADASYN) or **undersample** majority class.  
-   - Perform resampling *within cross-validation folds* to avoid data leakage.
-3. **Threshold tuning:**  
-   - Since logistic regression outputs probabilities, tune the decision threshold for higher recall or F1, depending on clinical priorities.
----
-## **4) Evaluation Metrics**
-In medical risk models, both *discrimination* (how well the model distinguishes outcomes) and *calibration* (how accurate the predicted probabilities are) matter.
-**Recommended metrics:**
-- **ROC-AUC:** Measures overall discriminative ability across all thresholds.  
-  - Insensitive to class imbalance but useful for model comparison.
-- **PR-AUC (Precision–Recall AUC):** More informative under **class imbalance**, emphasizing performance on the minority class.
-- **Sensitivity (Recall) / Specificity:** Clinically interpretable; trade-off can be tuned based on risk tolerance.  
-- **Brier Score:** Measures quality of probabilistic predictions.
-- **Calibration plots (reliability curves):**  
-  - Check whether predicted mortality probabilities align with observed outcomes.
-If the model is to support clinical decisions, **well-calibrated probabilities** are as important as ranking discriminability.
----
-## **5) Checking for Fairness or Bias**
-To ensure the model is not unfairly biased toward certain patient demographics:
-### **a) Performance Stratification**
-- Evaluate model metrics (AUC, sensitivity, calibration) **across subgroups**:
-  - Gender
-  - Ethnicity
-  - Age groups
-  - Insurance type (proxy for socioeconomic status)
-- If significantly lower performance in some groups, model may be biased.
-### **b) Calibration by Subgroup**
-- Plot calibration curves or compute Brier score for each demographic subgroup.  
-  - Discrepancies indicate systematic over-/underestimation of mortality risk in certain populations.
-### **Additional checks:**
-- **Feature importance interpretation**: ensure sensitive attributes (e.g., race) are not overly influential.
-- **Fairness metrics:**  
-  - e.g., **Equal opportunity difference** (compare true positive rates across groups)
-  - **Demographic parity difference**
----
-✅ **Summary Table**
-| Task | Approach |
-|------|-----------|
-| Baseline Model | Logistic Regression (interpretable, probabilistic) |
-| Preprocessing | Impute missing data (median/categorical “Unknown”), scale, one-hot encode, reduce correlated vars |
-| Class Imbalance | Class weighting or SMOTE |
-| Evaluation Metrics | ROC-AUC, PR-AUC, calibration (Brier score), recall/specificity |
-| Fairness Checks | Compare performance &amp; calibration by subgroup; audit feature contributions |
----
-This workflow provides interpretable, clinically valid baseline results while enabling extensions to more powerful models (e.g. gradient boosting) once data preprocessing and fairness are established.</t>
-  </si>
-  <si>
-    <t>1) Overall structure  
-- 20885 ICU stays (rows), with 4 identifier columns: subject_id, hadm_id, icustay_id and the binary target HOSPITAL_EXPIRE_FLAG.  
-- Vital‐sign summaries (min, max, mean for HeartRate, SysBP, DiasBP, MeanBP, RespRate, TempC, SpO2, Glucose): continuous numeric features extracted over each ICU stay.  
-- Demographics: GENDER (categorical), DOB, ADMITTIME, Diff (time difference between DOB and ADMITTIME in days).  
-- Administrative / admission‐level: ADMISSION_TYPE, INSURANCE, RELIGION, MARITAL_STATUS, ETHNICITY, FIRST_CAREUNIT, LOS (length of ICU stay).  
-- Diagnosis: free‐text DIAGNOSIS and coded ICD9_diagnosis.  
-2) Missing‐value pattern  
-- Vital signs have 10–12% missingness (HeartRate, BP, RespRate, SpO2) and ~12% for TempC, ~1% for Glucose. A small number of stays have no vital summaries at all (likely very short stays, recording failures or transfers).  
-- MARITAL_STATUS is missing ~3.5% (722/20885)—often unrecorded or “not specified.”  
-- No missingness in core identifiers, demographics, primary admission metadata.  
-Underlying reasons in ICU context:  
-- Some patients transferred out quickly or die before any measurements are recorded.  
-- Sensors offline or data‐capture errors (monitor downtime).  
-- Glucose may only be measured if clinically indicated.  
-- Social/demographic fields sometimes uncollected in emergencies.  
-3) Handling missing values  
-a) Column‐level  
-   - Drop entire vital‐sign variable if missingness &gt;30%. Here none exceed 30%, so keep all.  
-   - If a variable is missing in &gt;90% of rows (none here), drop it.  
-b) Row‐level  
-   - Optionally drop stays with no vital signs at all if they represent &lt;1% of data and cannot be imputed meaningfully.  
-c) Imputation strategies  
-   - Continuous vitals: use median imputation stratified by first_careunit or admission_type (to preserve plausible distributions), or K‐nearest‐neighbors on other vitals.  
-   - Better: multiple imputation by chained equations (MICE) using correlated vitals and demographics.  
-   - Glucose: if missingness is not random (only measured when indicated), consider adding a binary “Glucose_measured” flag and then impute with population median.  
-   - Categorical MARITAL_STATUS: impute “Unknown” as its own category.  
-d) Normalization / scaling after imputation  
-   - Scale continuous features (z‐score or min–max) to help with model convergence.  
-4) Risks and caveats  
-1. Data leakage  
-   - LOS is influenced by survival; using LOS in a predictive model for in‐hospital mortality risks leakage. LOS must not be available at prediction time. Similarly, “Diff” or any feature derived from events after admission must be carefully time‐aligned.  
-   - DIAGNOSIS free text may mention in‐hospital events (e.g., “died on day 2”). Use only diagnoses coded at or before ICU admission.  
-2. Imputation bias  
-   - Imputing missing vitals with population medians may shrink variance and underestimate risk for sicker patients. Imputation models must respect clinical thresholds.  
-   - Glucose‐measurement indicator itself is predictive of severity; ignoring missing‐not‐at‐random can introduce bias.  
-3. Class imbalance and fairness  
-   - Mortality is ~11%; must address imbalance (e.g., class weighting, resampling).  
-   - Demographic variables (AGE, GENDER, ETHNICITY, INSURANCE) may reflect systemic biases. Models may perpetuate disparities (e.g., under‐triaging certain ethnic groups).  
-4. Overfitting / spurious correlations  
-   - High‐dimensional vitals with strong intra‐correlations can lead to overfitting. Need regularization and cross‐validation.  
-   - Temporal drift: data over many years—changes in practice patterns can degrade generalization.  
-5. Regulatory / interpretability constraints  
-   - In clinical settings, black‐box predictions without explanations hinder adoption. Need post‐hoc interpretability (e.g., SHAP, LIME) and domain‐expert validation.</t>
+    <t>Let's go step–by–step as if reviewing this data for a mortality prediction modeling project.  
+---
+## 1️⃣ Dataset structure and variable types
+The dataset appears MIMIC‑III–style, i.e., one row per **ICU stay** (unique by `icustay_id`), with a rich mixture of:
+- **Outcome variable**
+  - `HOSPITAL_EXPIRE_FLAG` → binary target (0 = survived, 1 = died in‑hospital).
+- **Identifiers**
+  - `subject_id` (patient‑level), `hadm_id` (hospital admission), `icustay_id` (ICU stay).  
+    These are linking keys; they must **not be used directly for prediction**.
+- **Physiologic / vital sign summaries (continuous numeric)**
+  - `HeartRate_Min/Max/Mean`
+  - `SysBP_...`, `DiasBP_...`, `MeanBP_...` (blood pressures)
+  - `RespRate_...`, `TempC_...`, `SpO2_...` (respiration, temperature, oxygen sat)
+  - `Glucose_...`
+  Each represents per‑ICU‑stay summary statistics (e.g., min/max/mean across first 24 h or entire stay).
+- **Demographic / static attributes**
+  - `GENDER`, `DOB`, `ETHNICITY`, `MARITAL_STATUS`
+  - `INSURANCE`, `RELIGION`
+- **Admission / administrative descriptors**
+  - `ADMITTIME`, `ADMISSION_TYPE`, `FIRST_CAREUNIT`, `LOS` (length of stay)
+  - `Diff` (seems numeric date difference; possibly age in days but negative because of de‑identification date shifting)
+- **Clinical descriptors**
+  - `DIAGNOSIS`, `ICD9_diagnosis` (string codes / text)
+Overall:
+- **Numeric variables** ≈ 30+ physiological metrics and derived lengths/dates.
+- **Categorical variables** (nominal): `GENDER`, `ADMISSION_TYPE`, `INSURANCE`, `RELIGION`, `MARITAL_STATUS`, `ETHNICITY`, `FIRST_CAREUNIT`.
+- **Text variables**: `DIAGNOSIS`, `ICD9_diagnosis` (used possibly for feature engineering).
+- About **21 k rows**.
+Target distribution: mortality ≈ 11.2%, survival ≈ 88.8% → notable **class imbalance** (roughly 1 : 8).
+---
+## 2️⃣ Missing‑value pattern and likely reasons
+| Group | Example columns | Missing‑rate | Comments / ICU interpretation |
+|:------|:----------------|:-------------|:-------------------------------|
+| **Vitals &amp; Labs** | HeartRate_*, BP_*, RespRate_*, TempC_*, SpO2_* | ~10–12% missing (2‑2.5 k rows) | Possibly missing because certain stays lacked recorded vitals (e.g., very short ICU stays, data capture failure, or patients monitored in OR step‑downs). |
+| **Temperature** | `TempC_*` | highest (~12%) | Not measured on every ICU admission (e.g., surgical patients under anesthesia). |
+| **Glucose_*`** | only ~250 missing (~1%) | Lab may not have been ordered. |
+| **`MARITAL_STATUS`** | 722 missing (~3.5%) | Administrative variable; some fields blank for anonymous/self‑pay patients. |
+| **Everything else** | 0 missing | Good completeness. |
+Patterns:
+- Missingness is **not purely random (MCAR)** → may depend on care unit, patient type (e.g., trauma vs cardiac), severity, or death risk.  
+- That means **informative missingness**—the absence of a measurement itself may carry signal (e.g., healthier patients less frequently tested).
+---
+## 3️⃣ Strategies to handle missing data  
+You’ll want a **tiered approach** depending on feature type and downstream model.
+### 3.1. Drop or retain rows/columns
+- No variable has extremely high missingness (&gt; 30–40%), so dropping columns is **not necessary**.
+- Removing entire rows (10% of dataset) would reduce sample size and bias toward well‑monitored patients → **avoid dropping unless clearly spurious**.
+### 3.2. Imputation strategy by feature type
+| Feature group | Suggested handling | Justification |
+|:–|:–|:–|
+| **Vital‑sign summaries** (HeartRate, BP, RespRate, TempC, SpO₂) | - Compute **unit‑specific median imputation** (per `FIRST_CAREUNIT`) or conditional median by `ADMISSION_TYPE`.  &lt;br&gt; - Optionally include a **binary “missing flag”** for each variable. | Keeps scale realistic; ICU context varies across units. Missingness flags let model learn if absence correlates with outcome. |
+| **Glucose_*** | - Median or regression imputation based on other vitals and LOS. | Low missingness, noncritical. |
+| **Categorical fields (`MARITAL_STATUS`)** | - Add explicit category “UNKNOWN”. | Encodes uncertainty without dropping data. |
+| **Date / diff fields (`Diff`, `ADMITTIME`, `DOB`)** | - Derive **age** = (ADMITTIME − DOB) in years (de‑identified offset). - No imputation needed if always present. |
+| **Text fields (`DIAGNOSIS`, `ICD9_diagnosis`)** | - Either process into structured codes (bag‑of‑ICD9, grouped by comorbidity) or use embeddings; missingness not an issue. |
+| **Potential outliers** | - Winsorize physiological variables at reasonable percentiles (e.g., [1, 99]) before imputation. | Reduces extreme artifacts. |
+Advanced imputation options if pursuing high‑accuracy models:
+- **Multivariate imputation (MICE)**
+- **K‑nearest neighbor imputation**
+- **Model‑based imputation (random forest / autoencoder)**
+But simpler median + flag tends to perform comparably and keeps interpretability.
+---
+## 4️⃣ Risks and caveats (data leakage / bias / clinical validity)
+| Risk | Description / Why it matters |
+|:----|:----|
+| **1. Data leakage from post‑admission information** | Variables like `LOS` or summary vitals over the entire stay might reflect events after the prediction‑time horizon. If the model sees full‑stay data but the goal is to predict early mortality (e.g., in first 24 h), it **leaks future information** → overly optimistic accuracy. Always define a clear time window for feature extraction. |
+| **2. Informative missingness and measurement bias** | Sicker patients are monitored more often (fewer missing vitals), or labs added only when clinicians suspect deterioration. Imputation assuming random missingness may distort relationships and bias predicted risk. |
+| **3. Data imbalance** | With only ~11 % positives, models may learn to always predict survival; need careful resampling, class weighting, or evaluation metrics (AUROC, AUPRC). |
+| **4. Demographic and administrative bias** | Variables like `INSURANCE`, `ETHNICITY`, or `RELIGION` may correlate with care differences rather than physiology → societal / institutional bias. Consider fairness audits or exclusion if not clinically meaningful. |
+| **5. Duplicates or patient overlap (identifiers)** | A single `subject_id` may contribute multiple ICU stays, violating independence. Need to perform **patient‑level cross‑validation** to avoid leakage between train/test via same patient. |
+| **6. De‑identification artifacts** | Negative/shifted times (`Diff`), artificially modified ages beyond 89 yrs, etc., may distort age distribution; adjust accordingly. |
+---
+✅ **Summary**
+- The dataset includes vital‑sign/lab summaries + demographics per ICU stay.  
+- Missingness is moderate for continuous vitals (esp. temperature).  
+- Use median imputation with explicit missing flags; retain all rows.  
+- Guard against leakage (exclude LOS and any data computed after prediction time), ensure patient‑level splits, and watch out for bias in administrative / demographic variables.  
+This foundation enables clean feature engineering for mortality‑prediction modeling while maintaining clinical and ethical rigor.</t>
+  </si>
+  <si>
+    <t>Excellent — this is a realistic ICU mortality prediction problem.  
+Let’s go systematically.
+---
+### **1️⃣ Baseline modeling approach**
+**Goal:** Predict *in-hospital mortality* (`HOSPITAL_EXPIRE_FLAG` = 1/0) using vitals, demographics, and ICU data.
+**Baseline model proposal:**  
+- **Logistic Regression** with regularization (L2 or elastic net)  
+- As a secondary baseline, a **Gradient Boosted Tree model (e.g., XGBoost, LightGBM)** can be built later.
+**Rationale:**
+- Logistic regression is **interpretable**, **fast**, and establishes a stable baseline for binary outcomes.  
+- Medical use cases often require explainability: coefficients’ directions and magnitudes are clinically interpretable.
+- Tree-based models can follow after, to capture non-linear interactions and improve performance — but logistic regression forms the foundation.
+---
+### **2️⃣ Data preprocessing**
+#### **a. Handling missing values**
+- Notice many vitals have similar missing patterns: heart rate, BP, respiratory rate, temperature, SpO₂ → likely missing due to charting gaps.
+We could:
+- **Impute continuous variables** with clinically appropriate statistics:
+  - Preferably by **median** within similar patient groups (same careunit, diagnosis, or hospital admission type).
+  - Alternatively, use **K-Nearest Neighbors imputation** or **Iterative imputation** (fancyimpute or sklearn’s IterativeImputer).
+- Optionally, add binary **missing indicators** for each imputed variable (e.g., `HeartRate_Mean_missing` = 1 if missing).
+#### **b. Scaling**
+- Logistic regression requires scaling → apply **StandardScaler** to continuous variables.  
+- Tree-based models do not require scaling, but standardization helps comparison.
+#### **c. Encoding categorical variables**
+Variables: `GENDER`, `ADMISSION_TYPE`, `INSURANCE`, `RELIGION`, `MARITAL_STATUS`, `ETHNICITY`, `DIAGNOSIS`, `FIRST_CAREUNIT`
+- **Low-cardinality** (e.g., gender, insurance): → one-hot encoding.  
+- **High-cardinality** (e.g., diagnosis, ICD9_diagnosis): consider grouping or target-encoding (carefully, with cross-validation to avoid leakage).  
+- Missing MARITAL_STATUS (722 rows): impute with “Unknown” or create a “missing” category.
+#### **d. Date-related variables**
+Columns: `DOB`, `ADMITTIME`, `Diff`.  
+- Use these to derive **age at admission** (`ADMITTIME – DOB`).  
+- Verify `Diff` meaning (looks like a timestamp difference; maybe admission-discharge time?), scale or drop if redundant with `LOS`.
+#### **e. Highly correlated features**
+Vitals have min, max, mean for each measure → likely strongly correlated.
+- Compute pairwise correlation; drop one of any features with |r| &gt; 0.9.  
+  Example: keep only `*_Mean` values if min/max add little unique signal.
+- Alternatively, reduce collinearity via **PCA** (for continuous vitals only), though interpretability would be reduced.
+#### **f. Data leakage check**
+Ensure all derived features are from data **available prior to outcome** (avoid post-discharge variables like total LOS if predicting mortality early on).
+---
+### **3️⃣ Handling class imbalance (≈11% mortality)**
+Several complementary strategies:
+| Approach | Description | When Appropriate |
+|-----------|--------------|------------------|
+| **Class weights** | Use model parameter `class_weight='balanced'` in logistic regression to weight minority (death) higher | Simple &amp; effective baseline |
+| **Resampling** | SMOTE (synthetic oversampling), or undersample majority class | For models sensitive to imbalance, but not first choice in medical setting |
+| **Threshold tuning** | Adjust decision threshold on validation data to optimize sensitivity/specificity (or Youden’s index, or clinical utility) | Always |
+| **Ensemble weighting** | For tree-based models, use parameter `scale_pos_weight` proportional to imbalance | In gradient boosting |
+Typically, **rebalanced class weights** + **careful threshold selection** is safest and least prone to overfitting.
+---
+### **4️⃣ Evaluation metrics**
+Mortality prediction = high-stakes, imbalanced classification.  
+We care about both **discrimination** and **calibration**.
+| Metric | Why suitable |
+|---------|---------------|
+| **ROC-AUC** | Measures overall discrimination between survivors and non-survivors; not sensitive to specific threshold |
+| **PR-AUC** | More informative than ROC-AUC under severe imbalance (focuses on performance in the positive class) |
+| **Brier Score** | Measures calibration (average squared difference between predicted probability and outcome). |
+| **Calibration plots** (reliability diagrams) | Assess whether predicted probabilities reflect true risk |
+| **Confusion-matrix–derived metrics** (recall/sensitivity, specificity, F1) | Can be tuned to a clinically acceptable false-positive/false-negative tradeoff |
+For deployment: use a **calibration curve** (e.g., isotonic or Platt scaling) to ensure probabilities are clinically meaningful.
+---
+### **5️⃣ Checking model fairness / bias**
+Check if the model disadvantages certain patient subgroups:
+1. **Performance stratified by subgroup**  
+   Compute ROC-AUC, precision, recall across:
+   - Gender (male vs female)
+   - Ethnicity (White, Black, Hispanic, Asian, etc.)
+   - Insurance type (public vs private)
+   - Age groups (e.g., &lt;40, 40–65, &gt;65)
+   Look for large disparities.
+2. **Calibration parity**  
+   Compare calibration plots or Brier scores across subgroups — is “predicted 30% mortality” equally 30% observed mortality across all groups?
+---
+**Optional checks:**
+- Use statistical fairness metrics (equalized odds, demographic parity).  
+- Perform SHAP or feature importance analysis within subgroups to see if model emphasizes different variables.
+---
+### ✅ **Summary**
+| Step | Action | Reason |
+|------|---------|--------|
+| Model | Logistic regression baseline | Interpretability, medical norm |
+| Missing values | Median imputation + missing indicators | Preserve information |
+| Scaling | StandardScaler | For stable logistic regression |
+| Encoding | One-hot, handle missing MARITAL_STATUS | Convert categorials cleanly |
+| Correlation | Drop highly correlated vitals | Reduce redundancy |
+| Class imbalance | Class weights + threshold tuning | Better sensitivity |
+| Metrics | ROC-AUC, PR-AUC, Brier, calibration plots | Capture discrimination + risk reliability |
+| Fairness | Stratified performance &amp; calibration | Avoid systematic bias |
+---
+That end‑to‑end approach should give you a clinically interpretable, reproducible baseline mortality model ready for refinement (e.g., XGBoost ensemble or deep learning later).</t>
+  </si>
+  <si>
+    <t>Below is a structured answer tailored to an ICU mortality modeling context (MIMIC‑III–style data).
+---
+1) Overall structure of the dataset
+The dataset is a single-row–per–ICU-stay table designed for supervised binary classification (in‑hospital mortality).
+Variable types and meaning:
+- Outcome:
+  - HOSPITAL_EXPIRE_FLAG: binary target (0 = survived hospital stay, 1 = died in hospital).
+- Identifiers (should not be used as predictors):
+  - subject_id: patient identifier.
+  - hadm_id: hospital admission identifier.
+  - icustay_id: ICU stay identifier.
+- Physiological time-aggregated features (mostly continuous numeric):
+  - Vital signs summarized over a time window (likely first 24h of ICU stay):
+    - Heart rate: min / max / mean
+    - Blood pressure: systolic, diastolic, mean BP (min / max / mean)
+    - Respiratory rate: min / max / mean
+    - Temperature (°C): min / max / mean
+    - SpO₂: min / max / mean
+  These represent physiologic severity and instability.
+- Laboratory features:
+  - Glucose: min / max / mean
+  Likely derived from lab measurements during ICU stay.
+- Demographic variables:
+  - GENDER (binary categorical)
+  - DOB (date; used to derive age)
+  - Diff: appears to be (ADMITTIME − DOB) in days; effectively age (negative due to SQL subtraction direction).
+- Admission and administrative variables (categorical):
+  - ADMISSION_TYPE (EMERGENCY, ELECTIVE, URGENT, etc.)
+  - INSURANCE
+  - RELIGION
+  - MARITAL_STATUS
+  - ETHNICITY
+  - FIRST_CAREUNIT (MICU, SICU, CCU, CSRU, etc.)
+- Clinical context variables:
+  - DIAGNOSIS (free text admission diagnosis)
+  - ICD9_diagnosis (coded diagnosis; likely primary)
+- Utilization variable:
+  - LOS: ICU length of stay (days)
+Overall:  
+This is a classic ICU “early severity + demographics” feature set, mixing continuous physiologic summaries, administrative variables, and free-text / coded diagnoses.
+---
+2) Missing value pattern and ICU-specific interpretation
+Key observations:
+- High missingness in vital-sign–derived features:
+  - HeartRate, SysBP, DiasBP, MeanBP, RespRate: ~2,100–2,200 missing (~10–11%)
+  - Temperature: ~2,500 missing (~12%)
+  - SpO₂: ~2,200 missing (~11%)
+- Low missingness:
+  - Glucose variables: only ~253 missing (~1.2%)
+  - LOS, Diff, demographics: mostly complete
+- Moderate missingness:
+  - MARITAL_STATUS: 722 missing (~3.5%)
+Interpretation in an ICU context:
+- Vital sign missingness is mostly “structural”:
+  - Some ICU stays may have incomplete charted data in the extraction window (e.g., early transfer out, short stay, data integration errors).
+  - Some units or time periods may not record certain vitals electronically.
+  - Measurement absence is not random: sicker patients may be monitored more frequently.
+- Temperature missingness is particularly common:
+  - Temperature may be charted less frequently or inconsistently.
+  - Certain ICUs (e.g., surgical units) may rely on spot checks early.
+- Blood pressure missingness:
+  - Possible distinction between invasive (arterial line) vs non-invasive BP.
+  - If arterial line is absent early, BP summaries may be missing.
+- Glucose is largely complete:
+  - Reflects routine lab measurement in ICU.
+  - Missing glucose may indicate very short stays or pre-ICU transfer.
+- MARITAL_STATUS missingness:
+  - Administrative / social data often incomplete in emergencies.
+  - Missing likely unrelated to physiology but correlated with admission type or age.
+Overall, missingness is partly:
+- Not missing at random (NMAR): absence reflects care processes and patient severity.
+- Informative: the fact that something is missing may itself encode clinical information.
+---
+3) Strategies to handle missing values (with justification)
+A. High-level principles
+- Do NOT drop rows wholesale:
+  - Missingness affects up to ~12% of vitals; dropping rows would disproportionately remove shorter or less-monitored stays, introducing bias.
+- Avoid outcome-informed imputation:
+  - All imputation must be done using training data only.
+B. Column-wise strategy
+1) Vital sign summaries (HeartRate, BP, RespRate, Temp, SpO₂)
+Recommended approach:
+- Keep all these variables.
+- Use simple, robust imputation + missingness indicators.
+Concrete strategy:
+- Impute using population-level statistics from the training set:
+  - Median imputation for each variable (robust to outliers).
+- Add binary missingness indicators per variable group:
+  - e.g., HeartRate_Mean_missing, SysBP_Mean_missing, TempC_Mean_missing.
+  - Alternatively, one indicator per vital sign family rather than per column.
+Justification:
+- Median preserves realistic physiologic ranges.
+- Missingness indicators allow the model to learn that “not measured” itself is prognostic.
+- This is standard and effective in ICU mortality models (e.g., SAPS-like features).
+Avoid:
+- Carry-forward imputation (not applicable; no temporal rows).
+- Mean imputation without indicators (loses information).
+2) Glucose
+- Since missingness is low:
+  - Median imputation without indicator is acceptable.
+  - Or median + indicator if consistency is desired.
+3) Temperature (higher missingness)
+- Same approach as other vitals, but consider grouping:
+  - Impute min / max / mean jointly.
+  - If all three are missing, set them to median and flag “Temp_missing”.
+4) MARITAL_STATUS
+Options:
+- Treat missing as its own category (“UNKNOWN”).
+- Alternatively, impute with most frequent category, but “UNKNOWN” is preferable.
+Justification:
+- Categorical missingness here is informative of administrative incompleteness.
+- Creating a distinct level avoids injecting noise.
+5) Identifiers and dates
+- subject_id, hadm_id, icustay_id:
+  - Drop from modeling.
+- DOB, ADMITTIME:
+  - Use only to derive age.
+  - Drop raw dates afterward to avoid leakage or spurious patterns.
+- Diff:
+  - Replace with derived age in years.
+  - Validate negative sign and compute age = −Diff / 365.25.
+6) LOS
+Important caveat:
+- LOS is potentially a leakage variable.
+  - LOS is determined after outcomes (death shortens LOS).
+- Recommended:
+  - Exclude LOS from early mortality models.
+  - Alternatively, use only LOS truncated to a fixed early window (e.g., first 24h), if available.
+---
+4) Key risks and caveats (medical ML–specific)
+1) Data leakage through post-outcome information
+- LOS is a classic leakage source.
+- Vitals or labs aggregated over the entire ICU stay may include data after clinical deterioration or near death.
+- Mitigation:
+  - Ensure all features are computed from a fixed early window (e.g., first 24 hours).
+  - Exclude variables that depend on duration of stay beyond that window.
+2) Informative missingness and bias
+- Missing vitals are not random:
+  - Less severe patients may have fewer measurements.
+- Naive imputation without indicators may bias risk estimates downward.
+- Explicit missingness modeling is important.
+3) Demographic and socioeconomic bias
+- Variables like INSURANCE, ETHNICITY, MARITAL_STATUS:
+  - Capture systemic disparities, access to care, and documentation practices.
+  - Models may learn societal bias rather than physiological risk.
+- Important to:
+  - Evaluate performance across subgroups.
+  - Be cautious in downstream clinical use.
+4) Label ambiguity and censoring
+- HOSPITAL_EXPIRE_FLAG:
+  - Does not reflect long-term mortality.
+  - Patients discharged early may die shortly after.
+- Models predict in-hospital processes, not “true” survival.
+5) ICD9 diagnosis and free-text DIAGNOSIS leakage
+- Primary diagnosis may already encode severity or end-stage conditions.
+- Using diagnosis text can make the task artificially easy but less actionable.
+- Consider:
+  - High-level grouping (e.g., diagnostic categories).
+  - Or excluding detailed diagnosis for early-risk models.
+---
+In summary, this is a well-structured ICU dataset with typical vital-sign missingness patterns. The safest approach is conservative imputation with missingness indicators, strict temporal alignment to avoid leakage, and careful treatment of administrative and utilization variables.</t>
+  </si>
+  <si>
+    <t>Here is how I would approach this as a senior data scientist building an in‑hospital mortality model.
+1) Baseline modeling approach
+I would start with two complementary baseline models:
+• Regularized logistic regression  
+  - This is the natural baseline for binary clinical risk prediction.
+  - It provides interpretable coefficients (direction and approximate magnitude of risk).
+  - Works well with mixed continuous and categorical variables.
+  - Easy to calibrate and to explain to clinicians.
+• Tree‑based gradient boosting model (e.g., XGBoost / LightGBM)  
+  - Captures non‑linearities and interactions between vitals, demographics, and LOS.
+  - Typically strong performance on tabular ICU data.
+  - Handles missingness more naturally than linear models.
+Using both allows:
+- Logistic regression as an interpretable benchmark.
+- Gradient boosting as a higher‑performance reference.
+2) Data preprocessing
+Handling missing values:
+- Numeric variables:
+  - Median imputation is a safe baseline (robust to outliers).
+  - For tree‑based models, I would also experiment with leaving missing values as‑is or adding missing indicators.
+  - Create binary “missingness flags” for vitals, since missing vitals can be informative in ICU data.
+- Categorical variables:
+  - Impute missing categories with “Unknown” (e.g., MARITAL_STATUS).
+Scaling:
+- Required for logistic regression:
+  - Standardize numeric features (z‑score).
+- Not strictly required for tree‑based models.
+Encoding categorical variables:
+- Low‑cardinality variables (GENDER, ADMISSION_TYPE, INSURANCE, FIRST_CAREUNIT):
+  - One‑hot encoding.
+- High‑cardinality variables (ICD9_diagnosis, DIAGNOSIS, ETHNICITY if large):
+  - Group rare categories into “Other”.
+  - Alternatively, target encoding or learned embeddings for tree‑based models.
+- DOB:
+  - Convert to age at admission and drop raw DOB.
+- ADMITTIME:
+  - Extract features such as hour, day of week, or drop if not clinically meaningful.
+Highly correlated features:
+- Many vitals are min / mean / max of the same signal.
+- For logistic regression:
+  - Check correlation matrix or VIF.
+  - Possibly drop one of min/max/mean, or keep mean + variability (max–min).
+- For tree‑based models:
+  - Correlation is less of an issue; let the model choose.
+- Regularization (L1/L2) also helps control redundancy.
+3) Handling class imbalance
+The mortality rate is ~11%, which is imbalanced but not extreme.
+Approaches:
+- Use class weights (e.g., inverse frequency or “balanced”) in logistic regression and tree models.
+- Optimize decision thresholds based on clinical priorities (e.g., higher sensitivity).
+- Avoid naive oversampling at first; SMOTE only if performance is clearly limited.
+- Always evaluate calibrated probabilities, not just hard classification.
+4) Evaluation metrics
+Because this is a medical risk prediction problem, I would use multiple metrics:
+• ROC‑AUC  
+  - Measures discrimination across thresholds.
+  - Standard and widely understood.
+• PR‑AUC  
+  - More informative than ROC‑AUC for imbalanced outcomes.
+  - Focuses on performance for the positive (death) class.
+• Sensitivity / specificity at clinically meaningful thresholds  
+  - Especially sensitivity (recall for deaths), since missing high‑risk patients is costly.
+• Calibration (very important)  
+  - Calibration plots / reliability curves.
+  - Brier score.
+  - Clinicians need predicted probabilities to correspond to true risk.
+• Decision‑curve analysis (optional)  
+  - Evaluates net clinical benefit across thresholds.
+5) Checking for unfairness or bias
+At least two important checks:
+• Performance stratification by subgroup  
+  - Evaluate ROC‑AUC, calibration, sensitivity separately for:
+    - Gender
+    - Ethnicity
+    - Insurance type
+    - Age groups
+  - Look for systematically worse performance in specific groups.
+• Error rate comparison  
+  - Compare false negative rates (missed deaths) and false positive rates across subgroups.
+  - Particularly important for protected or vulnerable populations.
+Additional checks:
+- Compare predicted risk distributions across subgroups.
+- Run feature importance or SHAP analysis by subgroup to ensure drivers of risk are clinically plausible.
+- Test stability of the model across time or ICU units (FIRST_CAREUNIT).
+This combination balances interpretability, predictive performance, and responsible deployment in a clinical setting.</t>
+  </si>
+  <si>
+    <t>Here is a concise, structured assessment of the dataset and concrete guidance for building an in-hospital mortality predictor (HOSPITAL_EXPIRE_FLAG).
+1) Overall structure of the dataset
+- Row definition
+  - One row per ICU stay (icustay_id). The dataset includes static/demographic info and summary statistics derived from vitals collected during the ICU stay.
+- Columns by type and meaning
+  - Target and identifiers
+    - HOSPITAL_EXPIRE_FLAG: binary outcome (0 = survived hospital stay, 1 = died in hospital).
+    - subject_id, hadm_id, icustay_id: unique identifiers for patient, hospital admission, and ICU stay.
+  - Demographics and socioeconomics (categorical or date-based)
+    - GENDER (categorical: F/M), DOB (date), ADMITTIME (datetime), FIRST_CAREUNIT (e.g., MICU, SICU, CSRU), ADMISSION_TYPE, INSURANCE, RELIGION, MARITAL_STATUS, ETHNICITY, DIAGNOSIS, ICD9_diagnosis.
+  - Temporal/clinical context
+    - LOS: length of stay (numeric, likely in days), and Diff (numeric; appears to be a time-difference-like variable; interpretation not fully explicit from the sample).
+  - Vitals statistics (numeric, continuous)
+    - HeartRate_Min/Max/Mean
+    - SysBP_Min/Max/Mean
+    - DiasBP_Min/Max/Mean
+    - MeanBP_Min/Max/Mean
+    - RespRate_Min/Max/Mean
+    - TempC_Min/Max/Mean
+    - SpO2_Min/Max/Mean
+    - Glucose_Min/Max/Mean
+  - Data type hints
+    - Numeric: HeartRate, BP, RespRate, TempC, SpO2, Glucose, LOS, Diff, etc.
+    - Categorical/IDs: GENDER, ADMISSION_TYPE, INSURANCE, RELIGION, MARITAL_STATUS, ETHNICITY, FIRST_CAREUNIT, etc.
+    - Dates/datetimes: DOB, ADMITTIME (can be used to derive age at admission, time windows, etc.)
+- Target class balance
+  - HOSPITAL_EXPIRE_FLAG is imbalanced toward 0 (non-mortality): about 88.9% zeros and 11.2% ones (approximate from the distribution you provided).
+2) Missing value pattern and what it may reflect in ICU data
+- Overall missingness by column (approximate, from counts you shared; denominator = 20885 rows)
+  - Vital-sign summaries (most numeric tallies)
+    - HeartRate_Min/Max/Mean: missing ≈ 10.5% (≈ 2187/20885)
+    - SysBP_Min/Max/Mean: missing ≈ 10.6%–10.8% (≈ 2208/20885)
+    - DiasBP_Min/Max/Mean: missing ≈ 10.6%–10.8% (≈ 2209/20885)
+    - MeanBP_Min/Max/Mean: missing ≈ 10.5% (≈ 2186/20885)
+    - RespRate_Min/Max/Mean: missing ≈ 10.5% (≈ 2189/20885)
+    - TempC_Min/Max/Mean: missing ≈ 12.0% (≈ 2497/20885)
+    - SpO2_Min/Max/Mean: missing ≈ 10.5% (≈ 2203/20885)
+    - Glucose_Min/Max/Mean: missing ≈ 1.2%–1.3% (≈ 253/20885)
+  - Non-vital columns
+    - MARITAL_STATUS missing ≈ 3.5% (722/20885)
+    - Others (e.g., DIAGNOSIS, ICD9_diagnosis, FIRST_CAREUNIT, LOS, etc.) have very low or zero missing counts in your summary, suggesting good coverage for core fields.
+- Interpretation of missingness
+  - Pattern is not extreme globally (most vital-sign blocks have missingness around 10–12%), but it is systematic:
+    - Missingness is higher for certain vitals that may be intermittently recorded or not available for all ICU stays (e.g., TempC, SpO2, RespRate in some stays).
+    - Glucose is relatively well-recorded, but still missing in a minority.
+  - Possible underlying causes in ICU data
+    - Measurement practices vary by unit and over time (e.g., some patients continuously monitored; others intermittently measured; some data captured from different EMR modules or devices).
+    - Data integration/ETL issues: some vitals might not be fed into the ICU summary table for all stays or might be captured in separate tables (leading to NaNs in the compact wide table).
+    - Patient condition or procedure-related: certain vitals may not be measured if the patient is unstable, under specific protocols, or during particular care pathways.
+    - Temporal alignment: the summarization into min/max/mean across the stay may miss data if measurements are sparse or out of the extraction window.
+  - Data quality notes
+    - A few columns show implausible or extreme values in some rows (e.g., very large negative or positive values in "Diff"); these warrant sanity checks and outlier handling.
+3) Concrete strategies to handle missing values (with rationale)
+Goal: build a robust, well-calibrated mortality predictor while mitigating leakage and bias.
+A) Data cleaning and sanity checks
+- Remove or correct clearly invalid values before imputation
+  - Physiological plausibility rules (e.g., HeartRate outside typical human range, BP extremes beyond plausible ICU values, TempC outside 30–42 C, SpO2 &gt;100 or &lt;70 without justification, Glucose outliers beyond clinical range).
+  - Inspect and address obviously erroneous “Diff” values (the sample shows some extreme negatives; determine meaning and either correct or drop affected rows).
+- Compute derived features from dates
+  - Age at Admit: age = (ADMITTIME - DOB) in years.
+  - ICU stay timing context if useful (e.g., time from admission to ICU, though this may duplicate LOS). Note: be careful not to leak post-event information.
+B) Decide on imputation strategy (pros/cons)
+- Option 1: Simple imputation with indicators (fast, transparent)
+  - For each vital-sign column with missing values, impute using population median (or mean) and add a missingness indicator (1 if missing, 0 if observed) for that feature.
+  - Pros: simple, reduces data loss, preserves rows for modeling.
+  - Cons: may bias extreme values toward the center; the missingness indicator can capture non-random missingness.
+  - Justification: acceptable as a baseline and when computational efficiency or interpretability matters.
+- Option 2: Multiple imputation (MICE) or model-based imputation (robust, principled)
+  - Use MICE or MissForest / gradient-boosted imputation to fill continuous variables, leveraging relationships among vitals, demographics, comorbidities (ICD9), AdmitType, FIRST_CAREUNIT, etc.
+  - Generate multiple imputed datasets, fit models on each, and pool results or use model-based imputation within a single pipeline.
+  - Pros: accounts for uncertainty in imputation; preserves multivariate structure; often improves predictive performance.
+  - Cons: more complex to implement; requires careful handling in validation/prediction stages.
+  - Justification: ICU data are interrelated (e.g., vitals tend to co-vary with acuity). Multiple imputation is generally preferred when missingness is non-negligible and the analyst wants proper uncertainty propagation.
+- Option 3: Time-aware imputation for repeated measures (if applicable)
+  - If the data include more granular time-series (not just min/max/mean), use last observation carried forward or interpolation within a stay for short gaps.
+  - For the current wide-feature representation (min/max/mean per stay), this is less straightforward; use when you derive several temporally aligned predictors.
+- Option 4: Drop low-information or highly missing features
+  - If any vital block (e.g., a set of min/max/mean for a vital sign) shows consistently high missingness across a substantial fraction of rows after cleaning (e.g., &gt;40–50%), consider dropping that block to avoid noise.
+  - In your data, none of the core vitals exceed 12% missingness, so aggressive dropping may not be necessary, but keep an eye on features after cleaning.
+C) Practical modeling considerations for missing data
+- Create missingness indicators for key feature groups (e.g., HeartRate, BP, Respiratory, Temperature, SpO2, Glucose). These may carry clinically meaningful information about monitoring intensity and illness severity.
+- Impute demographics and static fields (DOB, GENDER, ETHNICITY) with their mode or most plausible values where truly missing (though your dataset shows these are largely complete).
+- For LOS and Diff
+  - Be cautious about using LOS as a predictor for mortality if you plan to deploy early in a patient's stay; LOS is a post-hoc outcome of the entire hospitalization. Consider excluding LOS from the predictive feature set or using it only in a restricted, temporally anchored way (e.g., after a fixed ICU stay has elapsed).
+  - If Diff represents a time-derived quantity, verify its meaning and decide if it constitutes leakage or an informative feature; if unclear, consider omitting or treating as a carefully validated feature.
+D) Validation and leakage prevention
+- Split strategy
+  - Use patient-wise (subject_id) splits to ensure no overlap of patients between training and test/validation sets. This prevents leakage due to patient-specific patterns.
+- Time-aware evaluation (if feasible)
+  - If you intend to predict mortality early in the stay, build a pipeline that only uses data available up to a defined cutoff (e.g., 24–48 hours after admission) to simulate real-time decision support.
+- Feature leakage cautions
+  - Avoid using LOS or any post-admission outcomes as predictors.
+  - Be careful with ICD9_diagnosis and DIAGNOSIS: while clinically informative, ensure they are available at the prediction time you intend (e.g., at admission or within the first 24 hours). If you plan to deploy at admission, consider constructing sequestered comorbidity indicators (e.g., Elixhauser-like score) computed from the ICD codes available at admission.
+- Calibration
+  - Because mortality is relatively rare (~11%), ensure the model is well-calibrated (calibration plots, Brier score). Use appropriate class-weighting or resampling if needed.
+E) Feature engineering hints that can be helpful
+- Age at admission (derived from DOB and ADMITTIME)
+- Vitals variability indicators (where available): e.g., range/variance proxies derived from min/max/mean (or standard deviation if you can compute it from additional stats)
+- Composite severity proxies
+  - Early severity signals: combinations like high heart rate and high respiratory rate in the same stay may indicate acuity
+- Unit-level or admission-level indicators
+  - FIRST_CAREUNIT (MICU, SICU, CSRU) may capture different monitoring practices; consider interaction terms or unit-stratified models.
+3 concrete plan (concise)
+- Step 1: Clean
+  - Apply physiological plausibility filters on vitals; fix or drop implausible rows.
+  - Compute Age; verify DOB/ADMITTIME consistency.
+  - Review and resolve suspicious “Diff” values; decide on a consistent interpretation or drop if needed.
+- Step 2: Prepare
+  - Decide on imputation strategy (start with multiple imputation/MICE for numeric vitals; add missingness indicators).
+  - Keep LOS out of the primary feature set for early-mortality prediction (or drop entirely if you want early prediction guarantees).
+  - Create a small set of robust, clinically plausible features (Age, FIRST_CAREUNIT, ADMISSION_TYPE, INSURANCE, ETHNICITY, DIAGNOSIS/ICD9 codes summary if available at admission).
+- Step 3: Impute
+  - Implement multiple imputation across the numeric vitals and glucose features; include demographic and unit information as predictors in the imputation model.
+  - Generate several imputed datasets and fit the mortality model on each; pool results (or use an imputation-aware modeling approach).
+  - Add missingness indicators for vitals as additional features.
+- Step 4: Model and evaluation
+  - Start with a strong, interpretable baseline (e.g., logistic regression with L1/L2 regularization) and a tree-based model (e.g., gradient boosting) to compare.
+  - Evaluate with AUC-ROC, AUC-PR, Brier score; use stratified cross-validation by patient.
+  - Assess calibration; perform threshold analysis aligned with clinical use.
+- Step 5: Deployment considerations
+  - Keep the predictor independent of post-admission outcomes; document which features are available at prediction time.
+  - Use explained models or SHAP-like explanations to understand feature impact, particularly to monitor for potential bias.
+4) Risks, caveats, and bias considerations (at least 3)
+- Data leakage and hindsight bias
+  - Using LOS, “Diff,” or post-admission diagnoses as predictors when predicting mortality during the hospital stay can leak future information and inflate performance. Ensure prediction time aligns with data availability (e.g., at ICU admission or within the first 24–48 hours).
+- Bias and confounding due to socioeconomic and care-pattern differences
+  - Sociodemographic variables (ADMISSION_TYPE, INSURANCE, RELIGION, MARITAL_STATUS, ETHNICITY) and unit-specific practices (FIRST_CAREUNIT like MICU vs SICU) may reflect access, care intensity, or regional practice variation rather than true biological risk. If unadjusted, models may pick up these proxies rather than true severity, leading to biased predictions across patient subgroups.
+- Missingness as a confounder
+  - If vitals are more completely recorded for sicker patients or in certain units, missingness itself becomes an informative signal; naïve imputation might erase this signal or inject bias. Always include missingness indicators and consider unit- and time-based stratifications.
+- Causality and interpretability
+  - Even with strong predictive performance, attributing mortality risk to specific vitals or codes without clinical context can be misleading. Be careful with overinterpretation of feature importance in a high-stakes clinical setting.
+- Data quality and alignment
+  - Inconsistent data capture across modules, devices, or time intervals can create artificial patterns. Regular data quality checks (range checks, cross-table consistency, unit-level summaries) are essential before modeling.
+- Class imbalance and threshold choice
+  - Mortality is relatively rare; models may be biased toward predicting survival. Use proper evaluation metrics (AUC-ROC, AUC-PR, calibration) and consider decision-analytic thresholds aligned with clinical use.
+- External validity and generalizability
+  - The patterns in MIMIC-like ICU data may not generalize to other hospitals or newer EMR systems with different documentation practices. Validate in external cohorts if possible.
+If you want, I can sketch a concrete, code-free blueprint for data cleaning, imputation, feature engineering, and a simple modeling workflow tailored to this dataset, including how to set up evaluation to avoid leakage and how to interpret feature importance in a clinically meaningful way.</t>
+  </si>
+  <si>
+    <t>Here is a practical, end-to-end plan tailored for predicting in-hospital mortality (target: HOSPITAL_EXPIRE_FLAG) using ICU-related features, with attention to missing data, leakage, and fairness.
+1) Baseline modeling approach and rationale
+- Baseline option A (strong baseline, good performance, works well on tabular data): Gradient-boosted tree ensemble (XGBoost or LightGBM)
+  - Why: 
+    - Handles tabular data with mixed feature types (numerics and categoricals after encoding) well.
+    - Robust to missing values (LightGBM/XGBoost can handle missing entries natively).
+    - Captures nonlinear relationships and interactions among vitals, demographics, and admission features.
+    - Provides feature importance for interpretation and SHAP values for local explanations.
+  - How to use as baseline:
+    - Use a careful train/validation/test split at the patient level to avoid leakage (see section 2).
+    - Include robust hyperparameter tuning with early stopping on a validation set.
+    - Handle class imbalance via loss weighting or dataset balancing (see section 3).
+- Baseline option B (interpretable, simple): Logistic regression with L2 regularization (and possibly L1 for feature selection)
+  - Why:
+    - Provides easily interpretable coefficients and calibration, a useful baseline for clinical trust.
+    - Often competitive after careful feature engineering and proper scaling.
+  - How to use:
+    - Standardize numeric features; one-hot encode categoricals; impute missing values.
+    - Compare with the tree-based model to gauge the value of nonlinear interactions.
+Recommendation: Start with XGBoost as the primary baseline because it typically delivers the best performance with tabular ICU data, then compare to logistic regression for interpretability and calibration checks.
+2) Data preprocessing plan
+A. Data selection and leakage avoidance
+- Drop or exclude identifiers and post-admission metrics that could leak outcome information:
+  - Drop: subject_id, hadm_id, icustay_id (these are IDs; do not use them for prediction).
+  - Be cautious with LOS and other time-to-event derived metrics that may reflect outcomes already known or highly correlated with death. If the goal is early prediction, remove LOS or use it only in a fully prospective manner (e.g., only in a post-admission model, not in the admission-time model).
+B. Feature engineering (define a clean feature set)
+- Demographics and admission features (likely categorical):
+  - GENDER, ADMISSION_TYPE, INSURANCE, RELIGION, MARITAL_STATUS, ETHNICITY, FIRST_CAREUNIT
+- Derived features:
+  - Age at admission: compute from DOB and ADMITTIME (in years).
+  - Time-based features from ADMITTIME if available (e.g., month, day of week) to capture seasonal effects.
+- Vital statistics (numeric; already summarized as min/max/mean for several vitals):
+  - Use HeartRate_Min/Max/Mean, SysBP_Min/Max/Mean, DiasBP_Min/Max/Mean, MeanBP_Min/Max/Mean, RespRate_Min/Max/Mean, TempC_Min/Max/Mean, SpO2_Min/Max/Mean, Glucose_Min/Max/Mean, plus Diff and LOS as discussed below.
+- Categorical ones with manageable cardinality:
+  - ADMISSION_TYPE, INSURANCE, RELIGION, MARITAL_STATUS, ETHNICITY, GENDER, FIRST_CAREUNIT, ICD9_diagnosis (if not too high-cardinality; otherwise consider dropping or encoding with target/ frequency encoding).
+- Important caution: avoid using high-cardinality text fields (e.g., full DIAGNOSIS) as raw features unless using a robust encoding strategy (target encoding, hashing trick). If DIAGNOSIS/ICD9_diagnosis are extremely high cardinality, consider dropping or encoding with a compact approach.
+C. Handling missing values
+- Tree-based model (XGBoost/LightGBM):
+  - Do not over-impute; let the model handle missing values directly.
+- For methods requiring imputation (e.g., logistic regression):
+  - Numeric features: impute with median or mean.
+  - Categorical features: impute with a dedicated "Unknown" category or the mode.
+  - Optionally, add missing-indicator features (binary flags) to indicate whether a value was missing.
+- Feature scaling:
+  - Logistic regression: Standardize numeric features (mean 0, std 1).
+  - Tree-based models: Scaling is not required.
+D. Encoding categorical variables
+- For tree-based models, one-hot encoding is still common, but there are alternatives:
+  - One-hot encode categorical features with relatively low cardinality (e.g., GENDER, FIRST_CAREUNIT, ADMISSION_TYPE, INSURANCE, RELIGION, MARITAL_STATUS, ETHNICITY).
+  - For higher-cardinality features (e.g., DIAGNOSIS, ICD9_diagnosis), consider:
+    - Dropping them (simplest and often effective).
+    - Target encoding or hashing (if you have a robust approach and enough data).
+- If using a framework that handles categoricals (e.g., CatBoost), you can feed categoricals directly; otherwise, use one-hot encodings.
+E. Correlated features
+- Identify highly correlated numeric features (Spearman/Pearson &gt; 0.9) and consider removing one feature from each highly correlated pair to reduce redundancy.
+- Rationale: helps with stability and interpretability (especially for logistic regression) and reduces noise for the learning algorithm.
+F. Data splitting and leakage prevention
+- Split data at the patient level (subject_id) to ensure all ICU stays for a given patient are in a single split (train/val/test). This prevents leakage from patient-level correlations.
+- Consider a time-based division if you have time-varying patterns (e.g., older data for training, newer data for testing) to simulate deployment.
+G. Hyperparameter tuning and validation
+- Use stratified k-fold cross-validation at the patient level for robust performance estimates.
+- When using XGBoost/LightGBM, enable early stopping with a separate validation set to prevent overfitting.
+- Important hyperparameters to tune (example ranges):
+  - XGBoost: max_depth, learning_rate, n_estimators, subsample, colsample_bytree, min_child_weight, gamma, scale_pos_weight (for imbalance).
+  - LightGBM: num_leaves, max_depth, learning_rate, n_estimators, subsample, colsample_bytree, min_child_samples, min_child_weight, reg_alpha, reg_lambda.
+3) Handling class imbalance in HOSPITAL_EXPIRE_FLAG
+- The mortality rate is about 11% (roughly 0.112). This is imbalanced but not extreme; still, address it explicitly.
+- Approaches:
+  - Loss weighting:
+    - For tree ensembles, set scale_pos_weight = (negative_class_count) / (positive_class_count) or equivalent; this tells the model to pay more attention to the minority class.
+  - Resampling (with caution):
+    - Oversample minority class (mortality) in training data using techniques like SMOTE or RandomOverSampler. Be careful to maintain clinical plausibility and not introduce unrealistic synthetic patterns.
+    - Undersample the majority class only if the dataset is very imbalanced and you have enough data to preserve signal.
+  - Threshold tuning:
+    - Instead of using the default 0.5 decision threshold, select a threshold based on the desired trade-off (e.g., maximize F1 or maximize sensitivity at a fixed false positive rate). This is especially relevant in clinical practice where high sensitivity may be prioritized.
+  - Evaluation emphasis:
+    - Monitor PR-AUC (precision-recall) in addition to ROC-AUC, since PR-AUC is more informative when the positive class is rarer.
+- Practical tip: in XGBoost, use scale_pos_weight and validate performance on the validation set with PR-AUC to guide tuning.
+4) Appropriate evaluation metrics and why they are suitable
+- Discrimination metrics:
+  - ROC-AUC (area under the receiver operating characteristic): assesses the model’s ability to rank patients by risk across all thresholds.
+  - PR-AUC (area under the precision-recall curve): especially informative when the positive class (mortality) is relatively rare.
+- Calibration and reliability:
+  - Brier score: measures the mean squared difference between predicted probabilities and actual outcomes; lower is better, and it directly reflects calibration.
+  - Calibration curves (reliability diagram) and calibration slope/intercept: assess how well predicted probabilities align with observed outcomes across risk deciles.
+  - Isotonic regression or Platt scaling can be used to calibrate probabilities after model training if needed.
+- Threshold-based and clinical relevance metrics:
+  - Sensitivity (recall) and specificity at clinically meaningful thresholds.
+  - Positive predictive value (precision) and F1-score at chosen thresholds.
+  - Decision-curve analysis (optional) to quantify net benefit across a range of thresholds.
+- Subgroup and fairness-oriented metrics (optional but recommended for deployment):
+  - Subgroup ROC-AUC and PR-AUC (by gender, ethnicity, age group, insurance status, etc.).
+  - Calibration by subgroup (calibration plots per group).
+- Summary:
+  - Use ROC-AUC and PR-AUC as primary discrimination metrics.
+  - Use Brier score and calibration plots for calibration assessment.
+  - Report sensitivity/specificity/F1 at chosen thresholds that align with clinical risk tolerances.
+5) Ways to check for potential unfairness or bias toward patient subgroups
+- Approach 1: subgroup performance assessment
+  - Compute discrimination and calibration metrics (ROC-AUC, PR-AUC, Brier score, calibration curves) separately within key subgroups:
+    - Gender (GENDER), ethnicity (ETHNICITY), age groups (e.g., &lt;50, 50–65, 65–80, &gt;80), insurance status, admission type, and first care unit.
+  - Look for substantial disparities (e.g., a 0.1–0.2 drop in AUC or worse calibration in a subgroup).
+- Approach 2: calibration-by-subgroup and threshold fairness
+  - Plot calibration curves by subgroup to see whether predicted probabilities are systematically over- or under-estimated for some groups.
+  - Check if a single global threshold yields unequal false negative rates across subgroups (e.g., equalizing true positive rates or false negative rates).
+  - If disparities are found, consider fairness-aware steps:
+    - Group-aware thresholds (different threshold per subgroup to equalize TPR or FPR).
+    - Reweighting or constrained optimization to reduce disparity in outcomes across groups.
+- Additional checks you can run
+  - Feature importance across subgroups: do SHAP values indicate different driving features for different groups?
+  - Audit for leakage and proxy features: ensure that correlated or proxy variables (e.g., socioeconomic proxies) aren’t unduly dominating predictions for particular subgroups.
+- Practical notes
+  - Do not rely on a single metric; use a combination of discrimination, calibration, and clinical relevance metrics.
+  - Document any trade-offs between overall performance and fairness, and consider clinical governance input before deployment.
+  - If fairness concerns are significant, consider incorporating fairness constraints or post-processing adjustments as part of a clinical deployment plan.
+Putting it all together: a practical plan to start
+- Build a strong baseline with XGBoost:
+  - Prepare data (drop IDs, handle leakage, derive age, encode categoricals, manage missing values, drop or encode high-cardinality fields judiciously).
+  - Use a patient-level train/validation/test split (e.g., 60/20/20) with stratification on mortality and grouping by patient.
+  - Tune hyperparameters with early stopping on the validation set; set scale_pos_weight to approximate the class imbalance.
+  - Compare to a logistic regression baseline for calibration and interpretability.
+- Evaluate with a comprehensive metric suite:
+  - Primary: ROC-AUC and PR-AUC on the test set.
+  - Calibration: Brier score and calibration curves overall and by key subgroups.
+  - Threshold-based clinical metrics: sensitivity/specificity at a clinically informed threshold.
+- Assess fairness early:
+  - Compute subgroup metrics and calibration by subgroup.
+  - If disparities appear, consider threshold adjustments or fairness constraints before any prospective deployment.
+If you’d like, I can sketch a small, concrete pipeline (pseudo-code or a reproducible notebook outline) that implements the data prep, model training (XGBoost with proper splits and early stopping), evaluation, and a first-pass fairness check on a sample of the data.</t>
+  </si>
+  <si>
+    <t>1. Overall structure of the dataset  
+   • Target  
+     – HOSPITAL_EXPIRE_FLAG: binary indicator of in‐hospital death (0 = survived to discharge, 1 = died in hospital)  
+   • Identifiers / temporal fields  
+     – subject_id, hadm_id, icustay_id: unique patient/hospital/ICU stay keys (should not be used as predictors)  
+     – DOB, ADMITTIME, Diff: date of birth, admission timestamp, and time difference (in days), from which age can be derived  
+   • Demographics and administrative variables  
+     – GENDER, ADMISSION_TYPE (e.g. EMERGENCY, ELECTIVE), INSURANCE, RELIGION, MARITAL_STATUS, ETHNICITY, FIRST_CAREUNIT  
+   • Clinical features – vital signs (collected over the stay)  
+     – HeartRate_Min/Max/Mean, SysBP_Min/Max/Mean, DiasBP_Min/Max/Mean, MeanBP_Min/Max/Mean, RespRate_Min/Max/Mean, TempC_Min/Max/Mean, SpO2_Min/Max/Mean  
+   • Clinical features – laboratory measurement  
+     – Glucose_Min/Max/Mean  
+   • Clinical features – diagnostic codes and plain‐text diagnosis  
+     – DIAGNOSIS, ICD9_diagnosis  
+   • Length of stay  
+     – LOS: ICU length of stay in days  
+2. Missing‐value pattern and likely ICU causes  
+   • Vital signs: ~10–12% missing across HR, BP, RR, Temp, SpO₂  
+     – In ICU practice not every parameter is recorded continuously for every patient or may not be charted in the first 24 h  
+     – Some units (e.g. CCU vs. MICU) have different monitoring protocols  
+   • Glucose: ~1% missing  
+     – Glucose is only measured when clinically indicated (e.g. diabetic patients or suspicion of dysglycemia)  
+   • Marital_status: ~3.5% missing  
+     – Social history may not be documented for homeless or emergent admissions  
+   • Other columns have negligible or zero missingness  
+3. Concrete strategies to handle missingness  
+   • Remove or transform non-predictive identifiers  
+     – Drop subject_id, hadm_id, icustay_id – they only identify records but add no predictive power  
+   • Derive age and drop raw dates  
+     – Compute age = ADMITTIME – DOB; drop DOB and Diff if age is retained  
+   • Handling vital signs  
+     – Impute with unit-wide medians or global medians stratified by ICU type  
+     – Alternatively carry forward the last observation or use linear interpolation if modeling time series  
+     – Create binary “missing” indicator flags for each vital (to let the model learn that “unmeasured” itself may carry information)  
+   • Handling glucose  
+     – Median imputation or model-based imputation (e.g. k-NN or Bayesian)  
+     – Missingness indicator for “no glucose measured”  
+   • Handling categorical variables  
+     – Map missing MARITAL_STATUS to “Unknown” or “Not documented”  
+     – Combine very rare categories in RELIGION/ETHNICITY to an “Other/Unknown” bucket  
+     – One-hot or target-encode ADMISSION_TYPE, INSURANCE, FIRST_CAREUNIT, ICD9 code groups  
+   • Feature pruning  
+     – If any variable is &gt; 50% missing (none in this case), consider dropping or carefully imputing  
+     – Drop highly collinear features (e.g. if MeanBP is a deterministic combination of SysBP and DiasBP)  
+4. Key risks and caveats  
+   1. Data leakage from post-outcome measurements  
+      – LOS or vitals recorded late in the ICU stay may incorporate clinical trajectories that occur *after* the prediction horizon  
+   2. Measurement bias as a proxy for severity  
+      – Sicker patients have more frequent charting (e.g. repeated glucose checks), so using raw counts or means can leak severity  
+   3. Imputation bias  
+      – Mean/median imputation for labs that are only ordered in specific subgroups (e.g. diabetics) will distort the feature distribution  
+   4. Fairness and confounding  
+      – Categorical features such as ETHNICITY, INSURANCE, or RELIGION may correlate with care patterns or socio-economic status and risk introducing or amplifying bias  
+   5. Overfitting to hospital practice  
+      – ICU-specific monitoring protocols or ordering habits (e.g. one unit always measures Temp hourly) can become spurious predictors when deployed elsewhere</t>
   </si>
   <si>
     <t>1) Baseline modeling approach  
-• Logistic regression with L1/L2 regularization  
-  – Pros: fast to train, produces calibrated probabilities, easy to interpret feature coefficients (important in a clinical setting).  
-  – Cons: may under-fit nonlinear relationships.  
-• A tree-based model (e.g., random forest or gradient-boosted trees such as XGBoost or LightGBM)  
-  – Pros: automatically handles nonlinearities and interactions, often higher baseline predictive performance.  
-  – Cons: harder to interpret, may require more careful tuning and calibration.
-A good strategy is to start with logistic regression (for interpretability and calibration) and then compare against a tuned gradient-boosted tree model to see if you get a material improvement in discrimination and calibration.
-2) Data preprocessing  
-• Missing values  
-  – Numerical vitals (HeartRate, BP, RespRate, Temp, SpO2, Glucose): impute with median or use a small‐variance noise around the median; or train a KNN or iterative imputer if you believe patterns of missingness are informative. Add binary “was_missing” indicator flags for variables with high missingness to let the model learn any signal in “missingness.”  
-  – Categorical (MARITAL_STATUS has ~3.5% missing): treat missing as its own category (“Unknown”) or impute to the mode if you prefer fewer categories.  
-• Scaling  
-  – For logistic regression: standardize continuous features (zero mean, unit variance).  
-  – For tree-based models: scaling is optional but can still help regularized variants.  
-• Encoding categorical variables  
-  – Low-cardinality (e.g., GENDER, ADMISSION_TYPE, ETHNICITY): one-hot encoding.  
-  – Higher cardinality (e.g., ICD9_diagnosis if too many unique codes): either group into major clinical categories or use target/impact encoding with cross-validation to avoid leakage.  
-• Highly correlated features  
-  – Compute pairwise correlations among vitals (Min/Max/Mean). If two features have correlation &gt;0.9, consider dropping one or combining them (e.g., keep only the mean or the range).  
-  – Alternatively apply dimensionality reduction (e.g., PCA) if you want fewer orthogonal predictors.
-3) Handling class imbalance  
-• Use class weights in the loss function (e.g., weight positive class ≈ 8–9× heavier than negative in logistic regression or boosting).  
-• Random undersampling of the majority class or random oversampling (or SMOTE) of the minority class during training.  
-• For tree-based models, set scale_pos_weight (XGBoost) or class_weight in sklearn to bias splits toward positive cases.
+   • Logistic regression with L₁/L₂ regularization as a transparent, easy‐to‐interpret baseline.  In a clinical setting, ability to explain risk factors to clinicians is a major advantage.  
+   • In parallel, a tree‐based model (e.g. Random Forest or XGBoost) as a second baseline to capture potential non‐linearities and interactions among vitals, labs and demographics.  You can then compare performance and interpretability trade-offs.  
+2) Preprocessing  
+   a) Missing values  
+     – For continuous features (vitals, labs): impute with the median (or use KNN/iterative imputer) and add a “missing” indicator flag if missingness itself might carry signal.  
+     – For categorical features (MARITAL_STATUS has 722 missing): treat “missing” as its own category or impute to “Unknown.”  
+   b) Feature scaling  
+     – If you use logistic regression or any distance‐based method: standard‐scale or robust‐scale all numeric predictors.  
+     – For tree-based models: scaling is not strictly necessary.  
+   c) Encoding categoricals  
+     – Low-cardinality: one-hot encoding (ADMISSION_TYPE, INSURANCE, RELIGION, etc.).  
+     – High-cardinality text fields (e.g. primary ICD9 diagnosis code): either group infrequent codes into an “Other” bucket or use target-encoding / leave-one-out encoding with cross-validation folds to avoid leakage.  
+   d) Highly correlated features  
+     – Compute a correlation matrix among vitals (e.g. SysBP_Mean, DiasBP_Mean, MeanBP_Mean).  If |ρ|&gt;0.9, consider dropping or combining them (e.g. keep MeanBP only).  
+     – Alternatively, let regularized logistic regression (L₁ or elastic net) automatically shrink one of a pair of correlated features to zero.  
+3) Handling class imbalance (11% mortality)  
+   – Use class weights in your loss function (e.g. in scikit-learn, `class_weight=‘balanced’`) so that errors on the minority class (death) are penalized more heavily.  
+   – Alternatively, perform careful up‐sampling of the minority class (SMOTE/ADASYN) or down‐sampling of the majority class, but only inside cross-validation folds to avoid overfitting.  
+   – Tune the decision threshold post-training to find a clinically acceptable sensitivity–specificity trade-off rather than using the default 0.5.  
 4) Evaluation metrics  
-• ROC-AUC: measures discrimination across all thresholds; robust and commonly reported.  
-• Precision-Recall AUC: more sensitive to performance on the minority (mortality) class, especially when prevalence is low.  
-• Sensitivity (recall) and specificity at clinically meaningful thresholds (e.g., threshold tuned to 80% sensitivity).  
-• Calibration metrics: Brier score, calibration plots (predicted vs. observed risk). Good calibration is vital if clinicians will use predicted probabilities to make decisions.  
-• Decision curve analysis or net benefit curves to quantify clinical utility at different risk thresholds.
-5) Checking for unfairness or bias  
-• Subgroup performance comparison  
-  – Compute ROC-AUC, sensitivity, specificity, calibration curves separately for key subgroups (e.g., by gender, age groups, major ethnic categories, insurance type). Look for large performance disparities.  
-• Statistical fairness metrics  
-  – Equalized odds: check if false positive and false negative rates are similar across protected groups.  
-  – Calibration within groups (“calibration‐in‐the‐large”): verify that predicted risk aligns with actual mortality for each subgroup.  
-• Error analysis  
-  – Plot distribution of prediction errors (e.g., predicted risk minus observed outcome) across demographics.  
-  – Perform a multivariable fairness audit (e.g., inspect SHAP values or coefficients by subgroup) to see if certain features dominate or systematically disadvantage a subgroup.</t>
-  </si>
-  <si>
-    <t>### 1) Dataset Structure and Variable Types
-The dataset contains 20,885 ICU stays with 44 variables, which can be categorized as:
-**Target Variable:**
-- `HOSPITAL_EXPIRE_FLAG`: Binary outcome (0 = survived, 1 = died in hospital)
-**Identifiers:**
-- `subject_id`, `hadm_id`, `icustay_id`: Unique identifiers for patients, hospital admissions, and ICU stays
-**Vital Signs (Numeric, with min/max/mean values):**
-- Heart rate (`HeartRate_Min/Max/Mean`)
-- Systolic BP (`SysBP_Min/Max/Mean`)
-- Diastolic BP (`DiasBP_Min/Max/Mean`)
-- Mean BP (`MeanBP_Min/Max/Mean`)
-- Respiratory rate (`RespRate_Min/Max/Mean`)
-- Temperature (`TempC_Min/Max/Mean`)
-- Oxygen saturation (`SpO2_Min/Max/Mean`)
-- Glucose (`Glucose_Min/Max/Mean`)
-**Demographic/Temporal Variables:**
-- `GENDER`: Categorical (M/F)
-- `DOB`: Date of birth
-- `ADMITTIME`: Hospital admission datetime
-- `Diff`: Time difference between DOB and admission (likely age proxy)
-- `LOS`: Length of ICU stay in days
-**Administrative/Categorical:**
-- `ADMISSION_TYPE`: Categorical (EMERGENCY/ELECTIVE/URGENT)
-- `INSURANCE`, `RELIGION`, `MARITAL_STATUS`, `ETHNICITY`: Demographic categories
-- `DIAGNOSIS`: Text diagnosis description
-- `ICD9_diagnosis`: Coded diagnosis
-- `FIRST_CAREUNIT`: Initial ICU unit (MICU, SICU, CCU, etc.)
-### 2) Missing Value Analysis
-**High Missingness (&gt;10% of data):**
-- Vital signs: All vitals have ~2,100-2,500 missing observations (10-12%)
-- Temperature metrics have highest missingness (2,497 missing, ~12%)
-- Glucose has minimal missingness (253 missing, ~1.2%)
-- `MARITAL_STATUS`: 722 missing (3.5%)
-**ICU Context Reasons:**
-- **Vital signs**: Missingness likely due to:
-  - Measurement gaps (e.g., temporary monitor disconnection)
-  - Clinical priorities (unstable patients may have more frequent monitoring)
-  - Unit-specific protocols (e.g., neuro ICUs may measure neurovitals more frequently)
-- **Temperature**: Often measured less frequently than other vitals
-- **Glucose**: May only be measured for diabetic/critically ill patients
-- **Demographics**: MARITAL_STATUS may be unreported in emergencies
-### 3) Missing Data Handling Strategies
-**For vital signs:**
-- **Multiple Imputation by Chained Equations (MICE)**: Optimal for clinical data as it preserves relationships between variables and accounts for uncertainty. Use predictive mean matching for continuous variables.
-- **Unit-specific imputation**: Impute separately by FIRST_CAREUNIT since monitoring practices differ by ICU type.
-- **Indicator variables**: Add missingness indicators for variables with &gt;5% missingness to capture potential informative missingness.
-**For demographics:**
-- **MARITAL_STATUS**: Impute as "Unknown" category rather than dropping, as missingness is likely not random.
-**General approach:**
-- **Retain all observations**: Given the sample size, dropping rows with missing vitals would lose ~12% of data unnecessarily.
-- **Do not drop columns**: All variables contain potentially predictive information.
-- **Leverage temporal patterns**: Use admission type and ICU unit to inform imputation (e.g., elective admissions may have more complete data).
-### 4) Risks and Caveats
-**1. Data Leakage:**
-- **Temporal leakage**: Using future information (e.g., procedures/medications administered after prediction time) would inflate performance. Ensure all features are known at ICU admission time.
-- **Diagnosis leakage**: ICD9 codes and detailed diagnoses may contain outcome-related information documented after death. Use only admission diagnoses.
-**2. Selection Bias:**
-- **ICU admission bias**: The cohort only includes patients sick enough for ICU care, limiting generalizability to all hospital patients.
-- **Missing not at random**: Sickest patients may have more complete monitoring (informative missingness), creating bias if not properly handled.
-**3. Clinical Validity:**
-- **Vital sign extremes**: Physiologically implausible values (e.g., TempC_Min = 15°C) need validation against clinical ranges.
-- **Code status bias**: Patients with DNR/DNI orders may have different treatment patterns affecting both monitoring and outcomes.
-**Additional considerations:**
-- **Class imbalance**: 11.2% mortality rate requires careful evaluation metrics (AUPRC, F1-score) beyond accuracy.
-- **Temporal validation**: Split data by time rather than randomly to assess model performance on future patients.
-Would you like me to elaborate on any specific aspect of the analysis or proposed approach?</t>
+   – ROC-AUC to measure overall discriminative ability, but be aware it can be overly optimistic in imbalanced settings.  
+   – Precision–Recall AUC (PR-AUC) focuses more on performance for the positive (death) class and is more informative when the positive class is rare.  
+   – Calibration metrics:  
+     • Calibration curve (reliability diagram) to check if predicted probabilities match observed mortality rates.  
+     • Brier score as a combined measure of discrimination and calibration.  
+   – At clinically relevant thresholds, report sensitivity (recall), specificity, positive predictive value (PPV), and negative predictive value (NPV).  
+   – Decision curve analysis (net benefit) can help establish clinical utility across a range of thresholds.  
+5) Checking for unfairness or subgroup bias  
+   a) Subgroup performance stratification  
+     – Compute AUC, sensitivity, specificity, calibration error (e.g. ECE) separately for protected subgroups such as gender, age bands, and ethnicity.  Large discrepancies suggest potential bias.  
+   b) Error‐rate parity / equalized odds  
+     – Compare false positive rates and false negative rates across subgroups.  If one group has systematically higher FNR (missed deaths) or FPR (over-alarm), that is a red flag.  
+   c) Calibration across subgroups  
+     – Plot calibration curves for each subgroup.  Under- or over-prediction for a subgroup indicates unfair risk estimates.  
+   d) Feature‐attribution fairness  
+     – Use SHAP or LIME to see whether certain protected attributes (or proxies) contribute disproportionately to predictions.  If race or insurance status has an outsized effect, you may need to adjust.  
+By following these steps you establish a sound baseline, prepare the data appropriately, address imbalance, choose metrics that reflect both discrimination and calibration, and put in place diagnostics to detect unfairness before deployment.</t>
+  </si>
+  <si>
+    <t>### Analysis of ICU Dataset for In-Hospital Mortality Prediction
+#### 1) Overall Structure of the Dataset
+The dataset contains 20,885 rows (patients) and 45 columns. Variables can be categorized as follows:
+- **Target Variable**:  
+  - `HOSPITAL_EXPIRE_FLAG`: Binary indicator (0 = survived, 1 = died in-hospital).
+- **Demographic and Administrative Variables**:  
+  - `subject_id`, `hadm_id`, `icustay_id`: Unique identifiers for patients, hospital admissions, and ICU stays.  
+  - `GENDER`, `DOB`, `ADMITTIME`: Patient demographics and admission timing.  
+  - `ADMISSION_TYPE`: Type of admission (e.g., EMERGENCY, ELECTIVE).  
+  - `INSURANCE`, `RELIGION`, `MARITAL_STATUS`, `ETHNICITY`: Socioeconomic and cultural factors.  
+  - `DIAGNOSIS`, `ICD9_diagnosis`: Clinical diagnoses (text and ICD-9 codes).  
+  - `FIRST_CAREUNIT`: Initial ICU unit (e.g., MICU, SICU).  
+  - `LOS`: Length of stay in the ICU (days).  
+  - `Diff`: Time difference between DOB and ADMITTIME (likely age proxy, but negative values suggest data errors).
+- **Physiological Measurements** (vitals and labs, recorded as min/max/mean per stay):  
+  - Heart rate (`HeartRate_*`), systolic/diastolic/mean blood pressure (`SysBP_*`, `DiasBP_*`, `MeanBP_*`).  
+  - Respiratory rate (`RespRate_*`), temperature (`TempC_*`), oxygen saturation (`SpO2_*`), glucose (`Glucose_*`).  
+**Key Observations**:  
+- The data is structured at the ICU stay level, with aggregated statistics (min, max, mean) for physiological variables.  
+- Negative values in `Diff` (e.g., -61,961) indicate potential data quality issues (e.g., incorrect date handling).  
+- Demographic and administrative variables are mostly complete, while physiological measurements have significant missingness.
+---
+#### 2) Missing Value Pattern Analysis
+Missing counts per column (from provided summary):
+- **High Missingness (&gt;2,000 missing)**:  
+  - `TempC_Min/Max/Mean` (2,497 missing), `HeartRate_*`, `SysBP_*`, `DiasBP_*`, `MeanBP_*`, `RespRate_*` (~2,180 missing), `SpO2_*` (2,203 missing).  
+- **Low Missingness**:  
+  - `Glucose_*` (253 missing), `MARITAL_STATUS` (722 missing).  
+- **No Missingness**: Demographics, identifiers, target.
+**Underlying Reasons in ICU Context**:  
+- **Physiological measurements**: Missingness likely due to:  
+  - Device availability/unavailability (e.g., temperature not monitored continuously).  
+  - Clinical state (e.g., unstable patients may have fragmented recordings).  
+  - Unit-specific protocols (e.g., some units may not routinely measure certain vitals).  
+- `MARITAL_STATUS`: Missingness may reflect patient refusal or documentation gaps.  
+- `Glucose`: Less missing, as it is commonly measured in ICU settings.  
+**Pattern**: Missingness is likely **not completely at random (MCAR)**, as it may correlate with patient severity or care context (e.g., moribund patients might have fewer measurements).
+---
+#### 3) Strategies to Handle Missing Values
+**For Physiological Variables (High Missingness)**:  
+- **Avoid Dropping Rows**: Removing rows with missing physiological data would discard ~10% of data (2,000/20,885), risking selection bias.  
+- **Imputation Methods**:  
+  - **Mean/Median Imputation**: Simple but may distort distributions (e.g., mean BP might not reflect instability).  
+  - **Multivariate Imputation (MICE)**: Preferred, as it accounts for correlations between variables (e.g., low BP and high heart rate).  
+  - **Forward-Filling**: Not applicable, as data is aggregated per stay.  
+  - **Add Missingness Indicators**: Create binary flags for missingness (e.g., `HeartRate_Missing`) to capture potential informative missingness (e.g., missing vitals could indicate instability).  
+**For Low-Missingness Variables**:  
+- `MARITAL_STATUS`: Impute with "Unknown" category to retain data.  
+- `Glucose`: Impute with median/mean due to low missingness.  
+**For `Diff` (Age Proxy)**:  
+- Recalculate age from `DOB` and `ADMITTIME` to fix negative values (likely date formatting issues).  
+**Justification**:  
+- MICE preserves relationships between variables and reduces bias. Missingness indicators help model learn from absence of data (e.g., missing vitals may predict mortality).  
+- Dropping columns is not recommended, as physiological variables are critical for prediction.
+---
+#### 4) Risks and Caveats
+1. **Data Leakage**:  
+   - `LOS` (length of stay) should **not** be used as a feature, as it may indirectly reveal outcome (e.g., deaths often occur after short stays).  
+   - `ICD9_diagnosis` and `DIAGNOSIS` may include post-admission information; use only admission diagnoses.  
+   - Ensure no future information (e.g., treatments post-ICU) leaks into features.
+2. **Bias in Medical Data**:  
+   - **Missing Not at Random (MNAR)**: Missing physiological data may correlate with severity (e.g., unstable patients have fewer measurements), leading to underrepresentation of high-risk patients.  
+   - **Demographic Bias**: Insurance, ethnicity, and marital status may proxy socioeconomic factors, potentially introducing disparities in model predictions.  
+   - **Temporal Bias**: Data spans many years (DOB from 1805–2161); practice changes over time may affect validity.
+3. **Clinical Validity**:  
+   - Aggregated vitals (min/max/mean) may mask critical trends (e.g., volatility matters). Consider features like variability or time-in-range.  
+   - Code diagnoses into comorbidities (e.g., Elixhauser index) rather than raw ICD-9 to reduce dimensionality and improve interpretability.
+---
+### Recommended Next Steps
+- Preprocess: Fix age, encode categorical variables (e.g., one-hot for `FIRST_CAREUNIT`), scale numeric features.  
+- Engineer features: Add missingness indicators, derive age from dates, create comorbidity scores.  
+- Model: Use tree-based models (e.g., XGBoost) that handle missingness well, or use MICE-imputed data with logistic regression.  
+- Validate: Stratify by time and demographics to check for bias, and use temporal validation splits.</t>
   </si>
   <si>
     <t>Of course. As a senior data scientist, here is a comprehensive plan for building a model to predict in-hospital mortality for ICU patients.
-### 1. Proposed Baseline Modeling Approach
-I propose starting with a **Gradient Boosting Machine (GBM)**, specifically a model like **XGBoost** or **LightGBM**, as the baseline.
-**Why a Gradient Boosting Machine?**
-*   **Handles Mixed Data Types:** GBM models natively handle the mix of numerical (vitals, LOS) and categorical (GENDER, INSURANCE, etc.) variables we have.
-*   **Robust to Imperfections:** They are generally robust to outliers, multicollinearity, and, to some extent, missing data, which is a significant issue in our dataset.
-*   **High Predictive Performance:** GBMs consistently top the leaderboards in tabular data prediction competitions and are a standard, powerful baseline in healthcare analytics.
-*   **Feature Importance:** They provide built-in feature importance scores, which are crucial for clinical interpretability and understanding what drives mortality risk.
-**Why not start with Logistic Regression?**
-While logistic regression is an excellent, interpretable benchmark, its performance can be hampered by the non-linear relationships likely present in physiological data (e.g., both very high and very low heart rate are bad) and the significant amount of missing data that requires imputation.
-### 2. Data Preprocessing Plan
-A robust preprocessing pipeline is critical for this clinical data.
-*   **a) Handling Missing Values:**
-    *   **ID columns (`subject_id`, `hadm_id`, `icustay_id`)**: These are identifiers. They will be kept for tracking but excluded as model features.
-    *   **Numeric Variables (Vitals, Glucose, LOS):**
-        *   Given the clinical nature of this data, mean/median imputation is too simplistic and can introduce bias. A more sophisticated approach is needed.
-        *   **Strategy:** Use **Multivariate Imputation by Chained Equations (MICE)**. MICE models each feature with missing values as a function of other features in a round-robin fashion, preserving the relationships between variables. It is a strong choice for clinical datasets.
-        *   As a simpler but less ideal alternative for a baseline, median imputation could be used, but MICE is preferred.
-    *   **Categorical Variables (`MARITAL_STATUS`)**: For the single categorical variable with missingness, I will create a new category called "Unknown" or "Missing". This preserves the information that the data was missing, which can sometimes be predictive.
-*   **b) Scaling/Normalization:**
-    *   Tree-based models like GBMs are **scale-invariant**. They do not require features to be scaled (e.g., StandardScaler, MinMaxScaler). This simplifies the pipeline.
-    *   If we were to use models like SVMs or neural networks, standard scaling would be essential.
-*   **c) Encoding Categorical Variables:**
-    *   Categorical variables like `GENDER`, `INSURANCE`, `RELIGION`, `ETHNICITY`, `ADMISSION_TYPE`, `FIRST_CAREUNIT`, and the newly created "Missing" category for `MARITAL_STATUS` need to be encoded.
-    *   **Strategy:** Use **Target Encoding**. This method replaces a categorical value with the mean of the target variable (mortality rate) for that category. It often provides better performance than one-hot encoding for high-cardinality categories and avoids creating an overly sparse feature matrix.
-    *   **Crucial:** To prevent data leakage, the target encoding must be fit *only* on the training set and then applied to the validation/test sets.
-*   **d) Dealing with Highly Correlated Features:**
-    *   The vitals data has min, max, and mean for each parameter (e.g., `HeartRate_Min`, `HeartRate_Max`, `HeartRate_Mean`). These are inherently highly correlated.
-    *   **Strategy:** I will **engineer new features** instead of blindly dropping columns. For each set of vitals (HR, BP, etc.), I will create:
-        1.  **The Mean value** (e.g., `HeartRate_Mean`).
-        2.  **The Variability** (e.g., `HeartRate_Range = HeartRate_Max - HeartRate_Min`).
-    *   This reduces multicollinearity, decreases the number of features, and provides clinically meaningful predictors (e.g., low blood pressure *and* high variability are both danger signs).
-### 3. Handling Class Imbalance
-The target variable is imbalanced (~11% positive class). A model trained on this data might become biased toward the majority class (survival).
-*   **Primary Strategy: ** **Use the `scale_pos_weight` parameter in XGBoost/LightGBM.** This is the most efficient and effective method. The parameter is automatically set to `sum(negative instances) / sum(positive instances)` (0.89/0.11 ≈ 8), which tells the algorithm to weight the positive examples more heavily during training.
-*   **Alternative Strategy (if needed):** **Class-weighted Logistic Regression.** If using logistic regression as a benchmark, I would use the `class_weight='balanced'` parameter to achieve a similar effect.
-*   I would generally **avoid** oversampling techniques like SMOTE for the initial baseline, as they can lead to overfitting and are computationally expensive for large datasets. The weighting parameter in GBM is a more straightforward and proven approach for this scenario.
-### 4. Evaluation Metrics
-In a critical problem like mortality prediction, choosing the right metrics is paramount. Accuracy is entirely unsuitable due to the imbalance.
-*   **1. Area Under the Precision-Recall Curve (PR-AUC):**
-    *   **Why:** This is the **single most important metric** for imbalanced problems where the positive class is the focus. The Precision-Recall curve directly shows the trade-off between the model's ability to correctly identify deaths (Recall) and its reliability when it does predict death (Precision). A high PR-AUC is our primary goal.
-*   **2. Area Under the ROC Curve (ROC-AUC):**
-    *   **Why:** This remains a valuable metric to assess the model's overall ability to discriminate between patients who die and those who survive, regardless of the classification threshold. It provides a good overall performance summary.
-*   **3. Calibration (via Calibration Curve):**
-    *   **Why:** In healthcare, a well-calibrated model is essential. If the model predicts a 90% risk of mortality, we need to be confident that approximately 90% of such patients actually die. A calibration plot (reliability diagram) is mandatory to check this. A model with good AUC but poor calibration is dangerous for clinical decision-making.
-*   **Additional Metrics (at a chosen threshold):**
-    *   Once a decision threshold is set (e.g., maximizing F1-score), report:
-        *   **Recall (Sensitivity):** How many of the actual deaths did we catch? Missed deaths (False Negatives) are extremely costly.
-        *   **Precision:** When we predict death, how often are we correct? False alarms (False Positives) can cause unnecessary distress and resource allocation.
-        *   **F1-Score:** The harmonic mean of Precision and Recall, useful for finding a balance.
-### 5. Checking for Model Bias and Fairness
-It is critical to ensure the model does not perform significantly worse for specific demographic subgroups, which would be unethical and dangerous.
-*   **1. Subgroup Analysis:**
-    *   **Method:** Slice the test data by key demographic features such as `GENDER`, `ETHNICITY`, and `INSURANCE` (as a proxy for socioeconomic status).
-    *   **Action:** Calculate key metrics (PR-AUC, Recall, Precision, F1) **for each subgroup separately** and compare them to the overall population metrics. A significant drop in performance for any subgroup indicates potential bias. For example, if recall for female patients is 0.7 but for male patients is 0.4, the model is unfairly failing to identify at-risk males.
-*   **2. Disparate Impact Analysis:**
-    *   **Method:** This is a legal and fairness test. Calculate the **disparate impact ratio** for a protected attribute (e.g., Ethnicity). For a chosen model threshold, calculate:
-        `(Number of Positive Predictions for Unprivileged Group / Size of Unprivileged Group) / (Number of Positive Predictions for Privileged Group / Size of Privileged Group)`
-    *   **Action:** A common rule of thumb (the "80% rule") suggests a value less than 0.8 indicates adverse impact. For instance, if patients of one ethnicity are flagged as high-risk at a rate less than 80% of another ethnicity, it suggests the model is biased. This helps uncover inequities in the model's *outcomes*.</t>
+### 1) Proposed Baseline Modeling Approach
+I propose starting with a **Gradient Boosting Machine (GBM)**, specifically a model like **XGBoost or LightGBM**, as the baseline.
+**Why a GBM?**
+*   **Handles Mixed Data Types:** GBMs natively handle the mix of numerical vitals (Heart Rate, BP) and categorical data (GENDER, INSURANCE) we have.
+*   **Robust to Imperfections:** They are robust to outliers, missing values (can handle them internally via sparsity-aware splits), and non-linear relationships, which are all common in messy, real-world clinical data.
+*   **High Predictive Performance:** GBMs consistently achieve state-of-the-art performance on tabular data problems like this, often outperforming logistic regression. This gives us a strong performance baseline from the start.
+*   **Feature Importance:** They provide built-in feature importance scores, which are crucial for clinical stakeholders to understand what drives the model's predictions.
+*Alternative: Logistic Regression* is a strong candidate for a simpler, highly interpretable baseline. It's a good benchmark to compare the more complex GBM against, especially if model interpretability is the highest priority for clinicians.
+---
+### 2) Data Preprocessing Strategy
+A robust preprocessing pipeline is essential for model performance and generalization.
+*   **Handling Missing Values:**
+    *   **ID columns (`subject_id`, `hadm_id`, `icustay_id`)**: These are identifiers, not features. They will be removed from the modeling dataset but kept for tracking and potential subgroup analysis.
+    *   **Numeric Variables (Vitals, Glucose):** Given the clinical nature of this data, mean/median imputation is too simplistic and can introduce bias. I would use **Multivariate Imputation by Chained Equations (MICE)**. MICE models each variable with missing values as a function of other variables, providing a more realistic estimate of the missing value. As a simpler but still effective alternative, I would use **median imputation** conditioned on the target variable (i.e., different medians for survivors and non-survivors) to preserve the relationship between missingness and the outcome.
+    *   **Categorical Variables (`MARITAL_STATUS`)**: For the single categorical variable with missingness, I will create a new category called "`Unknown`" or "`Missing`". This captures the fact that the value is missing, which can sometimes be informative.
+*   **Scaling:** Tree-based models like GBMs are **scale-invariant** (their performance does not change based on the scale of the features). Therefore, **scaling is not necessary** for the baseline GBM. If we use Logistic Regression or Neural Networks later, we will apply **StandardScaler** to all numerical features.
+*   **Encoding Categorical Variables:**
+    *   **Low-Cardinality Nominal Variables** (e.g., `GENDER`, `INSURANCE`, `FIRST_CAREUNIT`): Apply **One-Hot Encoding**.
+    *   **High-Cardinality Nominal Variables** (e.g., `ETHNICITY`, `RELIGION`, `DIAGNOSIS`): To avoid creating an explosion of features, use **Target Encoding** (replacing the category with the mean of the target for that category) with careful cross-validation to prevent overfitting.
+    *   **Ordinal Variables:** If any exist (none are obvious from the list), use **Ordinal Encoding**.
+*   **Dealing with Highly Correlated Features:**
+    *   The vitals data has min, max, and mean for each parameter (e.g., `SysBP_Min`, `SysBP_Max`, `SysBP_Mean`). These are inherently highly correlated.
+    *   **Strategy:** I will calculate a correlation matrix (e.g., Pearson for linear, Spearman for non-linear). For highly correlated pairs (e.g., `SysBP_Mean` and `SysBP_Min`, correlation &gt; 0.9), I will **remove one of the features** to reduce multicollinearity and simplify the model. Domain knowledge can guide which to keep (e.g., `MeanBP_Mean` is often a very strong predictor in ICU mortality models).
+---
+### 3) Handling Class Imbalance
+The target variable is imbalanced (~11% positive class). A model trained on this data might become biased toward the majority class (survivors).
+*   **Primary Approach: ** **Algorithm-Level Class Weighting.** This is the most efficient method. We will instruct the model to penalize misclassifications of the minority class (`HOSPITAL_EXPIRE_FLAG=1`) more heavily. In XGBoost, this is done by setting `scale_pos_weight = number_of_negatives / number_of_positives`.
+*   **Secondary Approach (if weighting isn't sufficient):** **Stratified Sampling.** Ensure that every cross-validation fold and train/test split has the same proportion of the positive class as the full dataset. This prevents "lucky" splits from skewing results.
+*   *Avoid:* I would generally avoid undersampling the majority class as we lose valuable data. Oversampling (e.g., SMOTE) can be tried but carries a risk of overfitting and is computationally more expensive than weighting.
+---
+### 4) Evaluation Metrics
+Accuracy is a poor metric for imbalanced problems (a model that always predicts "survive" would be 89% "accurate"). We need more nuanced metrics.
+*   **Primary Metric: ** **Area Under the Precision-Recall Curve (PR-AUC).** This is the most important metric for imbalanced problems where we care about the positive class. The Precision-Recall curve directly shows the trade-off between the model's ability to correctly identify deaths (Recall) and its accuracy when it does predict death (Precision). A high PR-AUC is the goal.
+*   **Secondary Metric: ** **Area Under the ROC Curve (ROC-AUC).** This measures the model's ability to distinguish between the two classes overall. It's useful but can be overly optimistic for imbalanced data. We will report both.
+*   **Critical Clinical Metric: ** **Precision and Recall at a clinically-relevant threshold.** The default threshold of 0.5 is often not optimal. We will work with clinicians to choose an operating point. For example, a screening tool might prioritize **high Recall** (catch as many at-risk patients as possible, accepting more false alarms), while an intervention tool might prioritize **high Precision** (only alert on patients we are very sure about, to avoid alarm fatigue).
+*   **Calibration:** It is crucial that a predicted probability of 80% mortality means the patient actually has an ~80% chance of dying. We will check calibration with a **Calibration Plot** (reliability diagram). A well-calibrated model is essential for clinical decision-making. If the model is poorly calibrated, we will apply **Platt Scaling** or **Isotonic Regression** to calibrate the probabilities.
+---
+### 5) Checking for Model Bias and Fairness
+It is critical to ensure the model does not perform significantly worse for specific patient subgroups, which could lead to inequitable care.
+1.  **Subgroup Performance Analysis:**
+    *   **Method:** After training the model, I will slice the test data by key demographic and clinical attributes: `GENDER`, `ETHNICITY`, `AGE` (derived from `DOB` and `ADMITTIME`), and `INSURANCE` (as a proxy for socioeconomic status).
+    *   **Action:** For each subgroup, I will calculate the key metrics (PR-AUC, Recall, Precision, F1). A significant drop in performance (e.g., much lower recall for a specific ethnic group) is a red flag for bias.
+2.  **Disparate Impact Analysis / Fairness Metrics:**
+    *   **Method:** Calculate fairness metrics for a chosen threshold. A key metric is **Equal Opportunity Difference**: `(True Positive Rate for Group A) - (True Positive Rate for Group B)`.
+    *   **Example:** We would check if the TPR (Recall) for patients with public insurance is significantly lower than for those with private insurance. A difference close to 0 indicates fairness, while a large positive or negative value indicates the model is biased toward one group.
+    *   **Other metrics:** We can also check for **Demographic Parity** and **Predictive Equality** to get a full picture of potential bias.</t>
   </si>
 </sst>
 </file>
@@ -957,13 +1466,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -985,143 +1494,334 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>27.25490093231201</v>
+        <v>40.21763682365417</v>
       </c>
       <c r="F2">
         <v>23630</v>
       </c>
       <c r="G2">
-        <v>1579</v>
+        <v>1790</v>
+      </c>
+      <c r="H2">
+        <v>0.0011815</v>
+      </c>
+      <c r="I2">
+        <v>0.0001432</v>
+      </c>
+      <c r="J2">
+        <v>0.0013247</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>22.38242983818054</v>
+        <v>30.82012271881104</v>
       </c>
       <c r="F3">
         <v>2278</v>
       </c>
       <c r="G3">
-        <v>1408</v>
+        <v>1438</v>
+      </c>
+      <c r="H3">
+        <v>0.0001139</v>
+      </c>
+      <c r="I3">
+        <v>0.00011504</v>
+      </c>
+      <c r="J3">
+        <v>0.00022894</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>10.04729890823364</v>
+        <v>27.38144373893738</v>
       </c>
       <c r="F4">
         <v>23629</v>
       </c>
       <c r="G4">
-        <v>1083</v>
+        <v>1810</v>
+      </c>
+      <c r="H4">
+        <v>0.00165403</v>
+      </c>
+      <c r="I4">
+        <v>0.0001448</v>
+      </c>
+      <c r="J4">
+        <v>0.00179883</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>8.655360221862793</v>
+        <v>15.28800082206726</v>
       </c>
       <c r="F5">
         <v>2277</v>
       </c>
       <c r="G5">
-        <v>1075</v>
+        <v>930</v>
+      </c>
+      <c r="H5">
+        <v>0.00015939</v>
+      </c>
+      <c r="I5">
+        <v>7.440000000000001E-05</v>
+      </c>
+      <c r="J5">
+        <v>0.00023379</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>35.03755187988281</v>
+      </c>
+      <c r="F6">
+        <v>23629</v>
+      </c>
+      <c r="G6">
+        <v>7349</v>
+      </c>
+      <c r="H6">
+        <v>0.000212661</v>
+      </c>
+      <c r="I6">
+        <v>7.349E-05</v>
+      </c>
+      <c r="J6">
+        <v>0.000286151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="E6">
-        <v>18.05644583702087</v>
-      </c>
-      <c r="F6">
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>30.02945971488953</v>
+      </c>
+      <c r="F7">
+        <v>2277</v>
+      </c>
+      <c r="G7">
+        <v>6208</v>
+      </c>
+      <c r="H7">
+        <v>2.0493E-05</v>
+      </c>
+      <c r="I7">
+        <v>6.208E-05</v>
+      </c>
+      <c r="J7">
+        <v>8.2573E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>15.58065485954285</v>
+      </c>
+      <c r="F8">
+        <v>23629</v>
+      </c>
+      <c r="G8">
+        <v>1763</v>
+      </c>
+      <c r="H8">
+        <v>0.00094516</v>
+      </c>
+      <c r="I8">
+        <v>7.052E-05</v>
+      </c>
+      <c r="J8">
+        <v>0.00101568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>8.558633327484131</v>
+      </c>
+      <c r="F9">
+        <v>2277</v>
+      </c>
+      <c r="G9">
+        <v>1242</v>
+      </c>
+      <c r="H9">
+        <v>9.108E-05</v>
+      </c>
+      <c r="I9">
+        <v>4.968E-05</v>
+      </c>
+      <c r="J9">
+        <v>0.00014076</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>23.88668441772461</v>
+      </c>
+      <c r="F10">
         <v>20615</v>
       </c>
-      <c r="G6">
-        <v>1065</v>
+      <c r="G10">
+        <v>1472</v>
+      </c>
+      <c r="H10">
+        <v>0.0008246</v>
+      </c>
+      <c r="I10">
+        <v>7.36E-05</v>
+      </c>
+      <c r="J10">
+        <v>0.0008982</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7">
-        <v>20.32867050170898</v>
-      </c>
-      <c r="F7">
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>21.4333667755127</v>
+      </c>
+      <c r="F11">
         <v>2040</v>
       </c>
-      <c r="G7">
-        <v>1894</v>
+      <c r="G11">
+        <v>1810</v>
+      </c>
+      <c r="H11">
+        <v>8.16E-05</v>
+      </c>
+      <c r="I11">
+        <v>9.05E-05</v>
+      </c>
+      <c r="J11">
+        <v>0.0001721</v>
       </c>
     </row>
   </sheetData>
